--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.7</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -849,10 +849,10 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -950,34 +950,34 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -998,28 +998,28 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1043,10 +1043,10 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1132,7 +1132,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1526,25 +1526,25 @@
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1556,10 +1556,10 @@
         <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1574,10 +1574,10 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1586,10 +1586,10 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
@@ -1598,19 +1598,19 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
@@ -959,22 +959,22 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SYMiMg1b</t>
+          <t>K8JqOFWo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Negeri Sembilan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.31</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>8.25</v>
+        <v>1.03</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>6.8</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>13.8</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>3.96</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T4" t="n">
-        <v>3.32</v>
+        <v>6.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>200</v>
       </c>
       <c r="X4" t="n">
-        <v>5.8</v>
+        <v>500</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.3</v>
+        <v>500</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.75</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AU4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="AV4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>5.9</v>
       </c>
-      <c r="AP4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>300</v>
-      </c>
       <c r="BA4" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="BB4" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0KzYl4tS</t>
+          <t>SYMiMg1b</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>8.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>34</v>
+        <v>13.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>11</v>
+        <v>3.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>3.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.3</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB5" t="n">
         <v>19</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AS5" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AT5" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AV5" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>450</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dS9iPcE4</t>
+          <t>0KzYl4tS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,172 +1456,354 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
       </c>
       <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>17</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AR6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dS9iPcE4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD7" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
         <v>351</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>21</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AY7" t="n">
         <v>34</v>
       </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="AZ7" t="n">
         <v>81</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA7" t="n">
         <v>101</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB7" t="n">
         <v>251</v>
       </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
         <v>9</v>
@@ -1120,13 +1120,13 @@
         <v>1.03</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>60</v>
@@ -1141,10 +1141,10 @@
         <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="S4" t="n">
         <v>1.09</v>
@@ -1153,19 +1153,19 @@
         <v>6.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="X4" t="n">
         <v>500</v>
       </c>
       <c r="Y4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Z4" t="n">
         <v>500</v>
@@ -1174,49 +1174,49 @@
         <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AJ4" t="n">
         <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AL4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AO4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AP4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AQ4" t="n">
         <v>501</v>
@@ -1228,31 +1228,31 @@
         <v>501</v>
       </c>
       <c r="AT4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AV4" t="n">
         <v>150</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AY4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BA4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1317,10 +1317,10 @@
         <v>13.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.53</v>
@@ -1675,22 +1675,22 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2kMB4Yt5</t>
+          <t>K8JqOFWo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Negeri Sembilan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>3.88</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>6.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AL2" t="n">
         <v>12</v>
       </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA2" t="n">
         <v>29</v>
       </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>51</v>
-      </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U1DS0jtU</t>
+          <t>SYMiMg1b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>300</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K8JqOFWo</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Negeri Sembilan</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>22</v>
+      </c>
+      <c r="X4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>9</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N4" t="n">
-        <v>26</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>150</v>
       </c>
-      <c r="X4" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AR4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS4" t="n">
         <v>300</v>
       </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AT4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV4" t="n">
         <v>50</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AW4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA4" t="n">
         <v>35</v>
       </c>
-      <c r="AO4" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AV4" t="n">
+      <c r="BB4" t="n">
         <v>150</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SYMiMg1b</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,173 +1274,173 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.31</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>8.25</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.78</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
         <v>300</v>
       </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>450</v>
-      </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>K8JqOFWo</t>
+          <t>2ghyxX1m</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Negeri Sembilan</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>9.5</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
-        <v>1.04</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>3.65</v>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>90</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>120</v>
-      </c>
       <c r="Z2" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
-        <v>27</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>5.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.9</v>
+        <v>13.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR2" t="n">
         <v>150</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>501</v>
-      </c>
       <c r="AS2" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU2" t="n">
-        <v>16</v>
+        <v>7.3</v>
       </c>
       <c r="AV2" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.65</v>
+        <v>17.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.9</v>
+        <v>100</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SYMiMg1b</t>
+          <t>t0u3jWGt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>8.25</v>
+        <v>14.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="L3" t="n">
-        <v>6.8</v>
+        <v>11.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>13.8</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3.32</v>
+        <v>2.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>2.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="X3" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.75</v>
+        <v>13.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AG3" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>50</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>20</v>
-      </c>
       <c r="AK3" t="n">
+        <v>700</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>175</v>
       </c>
-      <c r="AL3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>65</v>
-      </c>
       <c r="AW3" t="n">
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AY3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AZ3" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BA3" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BB3" t="n">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>K8JqOFWo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Negeri Sembilan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W4" t="n">
+        <v>120</v>
+      </c>
+      <c r="X4" t="n">
+        <v>600</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK4" t="n">
         <v>5.6</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>22</v>
-      </c>
-      <c r="X4" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AL4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM4" t="n">
         <v>45</v>
       </c>
-      <c r="AB4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AN4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AU4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="AY4" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17.5</v>
+        <v>5.8</v>
       </c>
       <c r="BA4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="BB4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>SYMiMg1b</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>8.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>1.78</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0KzYl4tS</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>1.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>34</v>
+        <v>9.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W6" t="n">
+        <v>22</v>
+      </c>
+      <c r="X6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>11</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM6" t="n">
         <v>19</v>
       </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AN6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dS9iPcE4</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,67 +1699,67 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1768,7 +1768,7 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1777,33 +1777,215 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0KzYl4tS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T8" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="U8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>19</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
         <v>21</v>
       </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
+      <c r="AY8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>51</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="n">
         <v>60</v>
@@ -1144,7 +1144,7 @@
         <v>1.14</v>
       </c>
       <c r="R4" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.09</v>
@@ -1153,37 +1153,37 @@
         <v>6.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="X4" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="Y4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Z4" t="n">
         <v>500</v>
       </c>
       <c r="AA4" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AB4" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
         <v>250</v>
@@ -1192,28 +1192,28 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AL4" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AO4" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AP4" t="n">
         <v>150</v>
@@ -1228,25 +1228,25 @@
         <v>501</v>
       </c>
       <c r="AT4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AV4" t="n">
         <v>120</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AX4" t="n">
         <v>3.7</v>
       </c>
       <c r="AY4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="BA4" t="n">
         <v>25</v>
@@ -1320,7 +1320,7 @@
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q5" t="n">
         <v>1.53</v>
@@ -1329,16 +1329,16 @@
         <v>2.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0KzYl4tS</t>
+          <t>QB9BsKic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,172 +1820,354 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>34</v>
-      </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
       </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>29</v>
-      </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0KzYl4tS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W9" t="n">
         <v>19</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" t="n">
         <v>51</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
         <v>51</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
         <v>67</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC9" t="n">
         <v>151</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2ghyxX1m</t>
+          <t>06maTCO9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t0u3jWGt</t>
+          <t>2ghyxX1m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>2.55</v>
       </c>
       <c r="I3" t="n">
-        <v>14.5</v>
+        <v>2.92</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>11.25</v>
+        <v>3.65</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.3</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
         <v>50</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.25</v>
+        <v>5.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>6.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>13.5</v>
       </c>
       <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM3" t="n">
         <v>50</v>
       </c>
-      <c r="AK3" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>250</v>
-      </c>
       <c r="AN3" t="n">
-        <v>2.77</v>
+        <v>4.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="AR3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AS3" t="n">
         <v>450</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="AU3" t="n">
-        <v>11.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>12.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>100</v>
       </c>
-      <c r="AY3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>501</v>
-      </c>
       <c r="BA3" t="n">
-        <v>501</v>
+        <v>150</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K8JqOFWo</t>
+          <t>t0u3jWGt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Negeri Sembilan</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>1.23</v>
       </c>
       <c r="H4" t="n">
-        <v>9.75</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.03</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>2.32</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>11.25</v>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>7.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.14</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>4.15</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>200</v>
+        <v>5.3</v>
       </c>
       <c r="X4" t="n">
-        <v>350</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>500</v>
+        <v>6.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>600</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="AC4" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>35</v>
+        <v>11.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.9</v>
+        <v>700</v>
       </c>
       <c r="AL4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AW4" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AX4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>501</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BA4" t="n">
         <v>501</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="BB4" t="n">
         <v>501</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SYMiMg1b</t>
+          <t>K8JqOFWo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Negeri Sembilan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
-        <v>8.25</v>
+        <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>1.78</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M5" t="n">
+        <v>60</v>
+      </c>
+      <c r="N5" t="n">
+        <v>26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T5" t="n">
         <v>6.8</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>2.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>150</v>
       </c>
       <c r="X5" t="n">
+        <v>350</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK5" t="n">
         <v>5.8</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO5" t="n">
         <v>300</v>
       </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT5" t="n">
         <v>5.9</v>
       </c>
-      <c r="AP5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AU5" t="n">
         <v>15.5</v>
       </c>
-      <c r="AR5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AV5" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.25</v>
+        <v>3.45</v>
       </c>
       <c r="AX5" t="n">
-        <v>45</v>
+        <v>3.7</v>
       </c>
       <c r="AY5" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AZ5" t="n">
-        <v>300</v>
+        <v>5.7</v>
       </c>
       <c r="BA5" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="BB5" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>SYMiMg1b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.2</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>9.75</v>
+        <v>13.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>22</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>7.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>45</v>
+        <v>8.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.75</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
         <v>50</v>
       </c>
       <c r="AG6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA6" t="n">
         <v>250</v>
       </c>
-      <c r="AH6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>35</v>
-      </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.57</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>3.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="X7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,133 +1830,133 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,22 +1965,22 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0KzYl4tS</t>
+          <t>QB9BsKic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,172 +2002,354 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>34</v>
-      </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
         <v>51</v>
       </c>
-      <c r="AH9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>29</v>
-      </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
         <v>21</v>
       </c>
       <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0KzYl4tS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>34</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>21</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>19</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AK10" t="n">
         <v>51</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS10" t="n">
         <v>51</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="AT10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>67</v>
       </c>
-      <c r="BC9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD9" t="n">
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>60</v>
@@ -1320,34 +1320,34 @@
         <v>1.04</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="R5" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="T5" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="X5" t="n">
         <v>350</v>
       </c>
       <c r="Y5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Z5" t="n">
         <v>500</v>
@@ -1356,16 +1356,16 @@
         <v>600</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AC5" t="n">
         <v>29</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
         <v>250</v>
@@ -1377,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AJ5" t="n">
         <v>16</v>
@@ -1392,10 +1392,10 @@
         <v>45</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AP5" t="n">
         <v>150</v>
@@ -1413,7 +1413,7 @@
         <v>5.9</v>
       </c>
       <c r="AU5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AV5" t="n">
         <v>120</v>
@@ -1431,7 +1431,7 @@
         <v>5.7</v>
       </c>
       <c r="BA5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB5" t="n">
         <v>200</v>
@@ -1517,10 +1517,10 @@
         <v>3.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1666,7 +1666,7 @@
         <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.57</v>
@@ -1735,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH7" t="n">
         <v>10.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,19 +1296,19 @@
         <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
         <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
         <v>60</v>
@@ -1317,28 +1317,28 @@
         <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="R5" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>1.09</v>
       </c>
       <c r="T5" t="n">
-        <v>6.1</v>
+        <v>6.81</v>
       </c>
       <c r="U5" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>200</v>
@@ -1359,13 +1359,13 @@
         <v>500</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
         <v>250</v>
@@ -1380,25 +1380,25 @@
         <v>7.6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
         <v>5.8</v>
       </c>
       <c r="AL5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM5" t="n">
         <v>45</v>
       </c>
       <c r="AN5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AP5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AQ5" t="n">
         <v>501</v>
@@ -1410,31 +1410,31 @@
         <v>501</v>
       </c>
       <c r="AT5" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AU5" t="n">
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1517,10 +1517,10 @@
         <v>3.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>QD2Evsw1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
         <v>4.75</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.9</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.5</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.57</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>3.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="X8" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD8" t="n">
         <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="BD8" t="n">
         <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0KzYl4tS</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,173 +2184,537 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA10" t="n">
         <v>13</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="AB10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW10" t="n">
         <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>21</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>8</v>
       </c>
       <c r="AX10" t="n">
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC10" t="n">
         <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QXl1xs0B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QB9BsKic</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -1111,115 +1111,115 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L4" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
         <v>5.3</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>50</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AL4" t="n">
         <v>250</v>
       </c>
       <c r="AM4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AP4" t="n">
         <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR4" t="n">
         <v>60</v>
@@ -1228,22 +1228,22 @@
         <v>450</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AV4" t="n">
         <v>175</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AY4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AZ4" t="n">
         <v>501</v>
@@ -1496,13 +1496,13 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.53</v>
@@ -1511,16 +1511,16 @@
         <v>2.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -2597,10 +2597,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06maTCO9</t>
+          <t>Y1jE5n2t</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>2.12</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>3.45</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AX2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC2" t="n">
         <v>81</v>
       </c>
-      <c r="AR2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BD2" t="n">
         <v>81</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2ghyxX1m</t>
+          <t>06maTCO9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.92</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t0u3jWGt</t>
+          <t>lvYLEfMF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>D. Zagreb</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>21</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AR4" t="n">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="AS4" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>11.25</v>
+        <v>3.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K8JqOFWo</t>
+          <t>2ghyxX1m</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Negeri Sembilan</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2.57</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>3.85</v>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>4.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.15</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.09</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>6.81</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>350</v>
+        <v>11.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>200</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AC5" t="n">
-        <v>28</v>
+        <v>4.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>5.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>5.8</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.75</v>
+        <v>35</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>45</v>
+        <v>4.35</v>
       </c>
       <c r="AO5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS5" t="n">
         <v>450</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AT5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA5" t="n">
         <v>175</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>22</v>
-      </c>
       <c r="BB5" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SYMiMg1b</t>
+          <t>t0u3jWGt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.9</v>
+        <v>10.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP6" t="n">
         <v>22</v>
       </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AS6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AV6" t="n">
         <v>150</v>
       </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>60</v>
-      </c>
       <c r="AW6" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AZ6" t="n">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QD2Evsw1</t>
+          <t>SYMiMg1b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.31</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W7" t="n">
         <v>6.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>QD2Evsw1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
         <v>4.75</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.9</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>10.5</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.55</v>
+        <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W9" t="n">
+        <v>22</v>
+      </c>
+      <c r="X9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI9" t="n">
         <v>9</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM9" t="n">
         <v>19</v>
       </c>
-      <c r="AA9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AR9" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AS9" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AV9" t="n">
         <v>50</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="AX9" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY9" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="BB9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,85 +2194,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.32</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.27</v>
-      </c>
       <c r="L10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.15</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.1</v>
       </c>
       <c r="Q10" t="n">
         <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S10" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V10" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="W10" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE10" t="n">
         <v>12.5</v>
@@ -2284,67 +2284,67 @@
         <v>250</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AR10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV10" t="n">
         <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BA10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2.27</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AR11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC11" t="n">
         <v>51</v>
       </c>
-      <c r="AG11" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="BD11" t="n">
         <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,109 +2558,109 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
         <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>13</v>
       </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2669,34 +2669,34 @@
         <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>29</v>
@@ -2715,6 +2715,552 @@
       </c>
       <c r="BD12" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QB9BsKic</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4bQwe2m2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YPMjpvmn</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.57</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1323,7 +1323,7 @@
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R5" t="n">
         <v>1.4</v>
@@ -1332,7 +1332,7 @@
         <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1341,22 +1341,22 @@
         <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="n">
         <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="n">
         <v>4.75</v>
@@ -1365,7 +1365,7 @@
         <v>5.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>110</v>
@@ -1374,55 +1374,55 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK5" t="n">
         <v>45</v>
       </c>
       <c r="AL5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>80</v>
       </c>
       <c r="AR5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS5" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV5" t="n">
         <v>80</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SYMiMg1b</t>
+          <t>vc0dNXz1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.31</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.35</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
@@ -1687,130 +1687,130 @@
         <v>4.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.53</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>5.8</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
         <v>7</v>
       </c>
-      <c r="Z7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>350</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QD2Evsw1</t>
+          <t>rV6mPg6l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
       </c>
       <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
         <v>41</v>
       </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="AG8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>QD2Evsw1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.75</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>10.5</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>1.45</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="L10" t="n">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W10" t="n">
+        <v>22</v>
+      </c>
+      <c r="X10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>9</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM10" t="n">
         <v>19</v>
       </c>
-      <c r="AA10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>26</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AQ10" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AR10" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AS10" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AV10" t="n">
         <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,85 +2376,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.32</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.27</v>
-      </c>
       <c r="L11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.15</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="W11" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE11" t="n">
         <v>12.5</v>
@@ -2466,67 +2466,67 @@
         <v>250</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV11" t="n">
         <v>50</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BA11" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>2.27</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
         <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>29</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
       <c r="AR12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC12" t="n">
         <v>51</v>
       </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="BD12" t="n">
         <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,67 +2740,67 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2809,31 +2809,31 @@
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
@@ -2866,10 +2866,10 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2887,10 +2887,10 @@
         <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4bQwe2m2</t>
+          <t>QB9BsKic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,56 +2912,56 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>1.9</v>
@@ -2979,67 +2979,67 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>15</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
       <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
         <v>29</v>
       </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3051,40 +3051,40 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BC14" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YPMjpvmn</t>
+          <t>4bQwe2m2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,167 +3099,349 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.4</v>
       </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
         <v>11</v>
       </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8</v>
-      </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
       </c>
       <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>YPMjpvmn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
         <v>81</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="AS16" t="n">
         <v>201</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
         <v>126</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD16" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>4.33</v>
@@ -944,7 +944,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -1037,13 +1037,13 @@
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1669,28 +1669,28 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.3</v>
@@ -1711,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1726,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QD2Evsw1</t>
+          <t>SlowNdS7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>11</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
         <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
       </c>
       <c r="AW9" t="n">
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>QD2Evsw1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
         <v>4.75</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.9</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>10.5</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>jq6mvUel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.05</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.32</v>
-      </c>
       <c r="L11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
         <v>10</v>
       </c>
-      <c r="X11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Y11" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
         <v>19</v>
       </c>
-      <c r="AA11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
         <v>9</v>
       </c>
-      <c r="AD11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
         <v>23</v>
       </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>1.45</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.27</v>
+        <v>2.57</v>
       </c>
       <c r="L12" t="n">
-        <v>4.15</v>
+        <v>1.9</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W12" t="n">
+        <v>22</v>
+      </c>
+      <c r="X12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AR12" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AS12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AV12" t="n">
         <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>3.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.33</v>
       </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
         <v>15</v>
       </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AY13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO14" t="n">
         <v>9</v>
       </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AR14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC14" t="n">
         <v>51</v>
       </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="BD14" t="n">
         <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4bQwe2m2</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,134 +3094,134 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.73</v>
       </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
       <c r="W15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>8.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AK15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
       <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
         <v>23</v>
       </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3230,43 +3230,43 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BC15" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YPMjpvmn</t>
+          <t>QB9BsKic</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,155 +3276,155 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.4</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH16" t="n">
         <v>11</v>
       </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
         <v>34</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>26</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
         <v>51</v>
       </c>
-      <c r="AR16" t="n">
-        <v>81</v>
-      </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>26</v>
@@ -3436,12 +3436,558 @@
         <v>81</v>
       </c>
       <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vyFzitF4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>17</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4bQwe2m2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
         <v>201</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="AH18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YPMjpvmn</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC19" t="n">
         <v>126</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD19" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Y1jE5n2t</t>
+          <t>0ljCkFRb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.25</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="K2" t="n">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>4.35</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W2" t="n">
         <v>9.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10.25</v>
-      </c>
       <c r="X2" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AV2" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06maTCO9</t>
+          <t>Y1jE5n2t</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>2.12</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>4.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.5</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>3.45</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4</v>
-      </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BA3" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC3" t="n">
         <v>81</v>
       </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lvYLEfMF</t>
+          <t>06maTCO9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,65 +1092,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D. Zagreb</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.5</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1159,112 +1159,112 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
         <v>21</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
         <v>41</v>
       </c>
-      <c r="Y4" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
         <v>101</v>
       </c>
-      <c r="AA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2ghyxX1m</t>
+          <t>lvYLEfMF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>D. Zagreb</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.57</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.22</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="n">
         <v>12</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AM5" t="n">
         <v>29</v>
       </c>
-      <c r="AB5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AN5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>201</v>
       </c>
-      <c r="AH5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>80</v>
-      </c>
       <c r="AR5" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="AS5" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="AX5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="n">
         <v>19</v>
       </c>
-      <c r="AY5" t="n">
-        <v>30</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t0u3jWGt</t>
+          <t>KfdLeaYN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,56 +1456,56 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>1.85</v>
@@ -1514,121 +1514,121 @@
         <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.85</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AE6" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.4</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
         <v>15</v>
       </c>
-      <c r="AR6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>90</v>
-      </c>
       <c r="AY6" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>501</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vc0dNXz1</t>
+          <t>S4NmjLBi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="AO7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AX7" t="n">
         <v>41</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rV6mPg6l</t>
+          <t>2ghyxX1m</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.1</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AK8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>26</v>
       </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SlowNdS7</t>
+          <t>t0u3jWGt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>13.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>1.72</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AR9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QD2Evsw1</t>
+          <t>W6V3fuIE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
         <v>7</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX10" t="n">
         <v>19</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jq6mvUel</t>
+          <t>vc0dNXz1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>9</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU11" t="n">
         <v>7</v>
       </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY11" t="n">
         <v>19</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AZ11" t="n">
         <v>34</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>rV6mPg6l</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
         <v>4.75</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W12" t="n">
-        <v>22</v>
-      </c>
-      <c r="X12" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AO12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>28</v>
-      </c>
       <c r="AP12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17.5</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>SlowNdS7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W13" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>22</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>QD2Evsw1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,167 +2912,167 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.7</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
         <v>3.75</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
         <v>2.25</v>
       </c>
-      <c r="L14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AU14" t="n">
         <v>9.5</v>
       </c>
-      <c r="X14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
         <v>23</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>20</v>
-      </c>
       <c r="AY14" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>jq6mvUel</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,47 +3094,47 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3155,106 +3155,106 @@
         <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>81</v>
       </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
       <c r="BB15" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>8QJqec8E</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>5.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X16" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AK16" t="n">
         <v>11</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AL16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM16" t="n">
         <v>19</v>
       </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>6.6</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>17.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>2.67</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="X17" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
         <v>21</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AG17" t="n">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AI17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
         <v>15</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>11</v>
-      </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="BA17" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC17" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4bQwe2m2</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.2</v>
       </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="W18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.5</v>
       </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC18" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YPMjpvmn</t>
+          <t>QXl1xs0B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,47 +3822,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -3877,31 +3877,31 @@
         <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>29</v>
-      </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
@@ -3910,84 +3910,812 @@
         <v>8</v>
       </c>
       <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
         <v>6</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QB9BsKic</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vyFzitF4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI21" t="n">
         <v>15</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4bQwe2m2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD22" t="n">
         <v>301</v>
       </c>
-      <c r="AH19" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>YPMjpvmn</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI23" t="n">
         <v>12</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ23" t="n">
         <v>10</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK23" t="n">
         <v>26</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL23" t="n">
         <v>21</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM23" t="n">
         <v>34</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN23" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO23" t="n">
         <v>17</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP23" t="n">
         <v>29</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
         <v>81</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS23" t="n">
         <v>201</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT23" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU23" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
         <v>4.5</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX23" t="n">
         <v>15</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY23" t="n">
         <v>26</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="AZ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA23" t="n">
         <v>81</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB23" t="n">
         <v>201</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BC23" t="n">
         <v>126</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD23" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,7 +1147,7 @@
         <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1311,10 +1311,10 @@
         <v>1.8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1839,91 +1839,91 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.6</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W8" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD8" t="n">
         <v>5.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>11.75</v>
@@ -1935,43 +1935,43 @@
         <v>37</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AO8" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AQ8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR8" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AS8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AV8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ8" t="n">
         <v>110</v>
@@ -1980,7 +1980,7 @@
         <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,139 +2021,139 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="K9" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AL9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM9" t="n">
         <v>250</v>
       </c>
-      <c r="AM9" t="n">
-        <v>200</v>
-      </c>
       <c r="AN9" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AP9" t="n">
         <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AR9" t="n">
         <v>60</v>
       </c>
       <c r="AS9" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AW9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AY9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AZ9" t="n">
         <v>501</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3686,7 +3686,7 @@
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.62</v>
@@ -3701,16 +3701,16 @@
         <v>3.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y18" t="n">
         <v>8.25</v>
@@ -3719,10 +3719,10 @@
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
@@ -3731,7 +3731,7 @@
         <v>7.3</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>45</v>
@@ -3740,46 +3740,46 @@
         <v>250</v>
       </c>
       <c r="AH18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS18" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT18" t="n">
         <v>3.05</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV18" t="n">
         <v>50</v>
@@ -3788,16 +3788,16 @@
         <v>5.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA18" t="n">
         <v>100</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>120</v>
       </c>
       <c r="BB18" t="n">
         <v>250</v>
@@ -3859,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -3877,10 +3877,10 @@
         <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3907,7 +3907,7 @@
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3958,7 +3958,7 @@
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
@@ -3967,13 +3967,13 @@
         <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
         <v>101</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4047,16 +4047,16 @@
         <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4071,16 +4071,16 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
@@ -4092,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4104,34 +4104,34 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4161,7 +4161,7 @@
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4bQwe2m2</t>
+          <t>Cr8hTL7K</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC22" t="n">
-        <v>276</v>
+        <v>500</v>
       </c>
       <c r="BD22" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YPMjpvmn</t>
+          <t>GtdhZgZH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,38 +4550,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
         <v>3.25</v>
@@ -4590,132 +4590,678 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.4</v>
       </c>
-      <c r="P23" t="n">
+      <c r="T23" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
         <v>29</v>
       </c>
-      <c r="AA23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>34</v>
-      </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
       </c>
       <c r="AK23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>rTcpyG45</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Xamax</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4bQwe2m2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>YPMjpvmn</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
         <v>26</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL26" t="n">
         <v>21</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM26" t="n">
         <v>34</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN26" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO26" t="n">
         <v>17</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP26" t="n">
         <v>29</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
         <v>81</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS26" t="n">
         <v>201</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT26" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AU26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
         <v>4.5</v>
       </c>
-      <c r="AX23" t="n">
+      <c r="AX26" t="n">
         <v>15</v>
       </c>
-      <c r="AY23" t="n">
+      <c r="AY26" t="n">
         <v>26</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA23" t="n">
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
         <v>81</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB26" t="n">
         <v>201</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC26" t="n">
         <v>126</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD26" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06maTCO9</t>
+          <t>jiISFPim</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Club Brugge KV U23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.25</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
         <v>6</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AO4" t="n">
         <v>19</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>67</v>
       </c>
-      <c r="AG4" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
         <v>10</v>
       </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AY4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA4" t="n">
         <v>41</v>
       </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BC4" t="n">
         <v>81</v>
       </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lvYLEfMF</t>
+          <t>dlLzE3Ma</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D. Zagreb</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1335,118 +1335,118 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
         <v>21</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
         <v>41</v>
       </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
         <v>101</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
       </c>
       <c r="AT5" t="n">
         <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>67</v>
       </c>
-      <c r="AW5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>15</v>
-      </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KfdLeaYN</t>
+          <t>06maTCO9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AZ6" t="n">
         <v>41</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S4NmjLBi</t>
+          <t>lvYLEfMF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>D. Zagreb</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
         <v>6.5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="n">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>23</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
         <v>3.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4.33</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA7" t="n">
         <v>41</v>
       </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2ghyxX1m</t>
+          <t>KfdLeaYN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t0u3jWGt</t>
+          <t>S4NmjLBi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="K9" t="n">
-        <v>2.37</v>
+        <v>3.1</v>
       </c>
       <c r="L9" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.91</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.39</v>
-      </c>
       <c r="W9" t="n">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD9" t="n">
         <v>13</v>
       </c>
-      <c r="AB9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>800</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="AM9" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.77</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AS9" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BA9" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W6V3fuIE</t>
+          <t>2ghyxX1m</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.12</v>
       </c>
-      <c r="L10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO10" t="n">
         <v>17</v>
       </c>
-      <c r="AB10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AP10" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AR10" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AZ10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA10" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB10" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vc0dNXz1</t>
+          <t>t0u3jWGt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>1.22</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.75</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W11" t="n">
-        <v>13</v>
-      </c>
-      <c r="X11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AG11" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>2.77</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>5.2</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>501</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rV6mPg6l</t>
+          <t>W6V3fuIE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SlowNdS7</t>
+          <t>lrCa1peE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,170 +2730,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.4</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
         <v>19</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AJ13" t="n">
         <v>11</v>
       </c>
-      <c r="AF13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
         <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QD2Evsw1</t>
+          <t>hh4S2xFL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO14" t="n">
         <v>21</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
         <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
         <v>81</v>
       </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
+      <c r="BD14" t="n">
         <v>81</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jq6mvUel</t>
+          <t>tjU6aOPQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,29 +3094,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
         <v>3.1</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3164,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
@@ -3173,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
@@ -3182,7 +3182,7 @@
         <v>8.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3233,7 +3233,7 @@
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8QJqec8E</t>
+          <t>QN5wf2ml</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>2.57</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>3.45</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.75</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>19</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.45</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>bgq7ef7e</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.92</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.75</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>QXnqeErJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>2.27</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="X18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>17</v>
       </c>
-      <c r="AA18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QXl1xs0B</t>
+          <t>vc0dNXz1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
         <v>3.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="U19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W19" t="n">
+        <v>13</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
         <v>7</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>9</v>
       </c>
-      <c r="Z19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>17</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>34</v>
       </c>
-      <c r="AC19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
         <v>101</v>
       </c>
-      <c r="BA19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>500</v>
-      </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>rV6mPg6l</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,59 +4004,59 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4071,28 +4071,28 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
         <v>10</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4101,40 +4101,40 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
         <v>29</v>
       </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
@@ -4149,19 +4149,19 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>SlowNdS7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,138 +4191,138 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W21" t="n">
         <v>11</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W21" t="n">
-        <v>17</v>
-      </c>
       <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
         <v>21</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
         <v>41</v>
       </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
       <c r="AS21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4331,25 +4331,25 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cr8hTL7K</t>
+          <t>QD2Evsw1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y22" t="n">
         <v>9.5</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W22" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>19</v>
       </c>
-      <c r="AA22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU22" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX22" t="n">
         <v>23</v>
       </c>
-      <c r="AM22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ22" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BB22" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="BC22" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
         <v>51</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GtdhZgZH</t>
+          <t>nTlqaPOi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>6.9</v>
+        <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>3.05</v>
+        <v>6.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.78</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.4</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>2.75</v>
       </c>
-      <c r="U23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W23" t="n">
+        <v>13</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
         <v>8.5</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AP23" t="n">
         <v>13</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="AQ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY23" t="n">
         <v>21</v>
       </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rTcpyG45</t>
+          <t>tSshc3g4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.07</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="K24" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S24" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AK24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM24" t="n">
         <v>21</v>
       </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>28</v>
-      </c>
       <c r="AN24" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AR24" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB24" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4bQwe2m2</t>
+          <t>Eut0esOG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,77 +4914,77 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -4993,100 +4993,100 @@
         <v>21</v>
       </c>
       <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
         <v>19</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
         <v>29</v>
       </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AG25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="n">
         <v>15</v>
       </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
         <v>23</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>29</v>
       </c>
       <c r="AN25" t="n">
         <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
         <v>41</v>
       </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
       <c r="AS25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD25" t="n">
         <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YPMjpvmn</t>
+          <t>A7Z8gLhT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,172 +5096,2538 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
         <v>13</v>
       </c>
-      <c r="Y26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AJ26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL26" t="n">
         <v>15</v>
       </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>21</v>
-      </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
         <v>4.5</v>
       </c>
       <c r="AX26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>jq6mvUel</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
         <v>15</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>phYlZFoe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Al Ahli Doha</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Al-Shahaniya</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="n">
         <v>26</v>
       </c>
-      <c r="AZ26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA26" t="n">
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hIycXgG7</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Al Wakra</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Umm-Salal</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EsFqnzIa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gloria Buzau</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>15</v>
+      </c>
+      <c r="X30" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QB9BsKic</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>8</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA31" t="n">
         <v>81</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vyFzitF4</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>17</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cr8hTL7K</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GtdhZgZH</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rTcpyG45</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Xamax</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lU4ywxzg</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Etoile-Carouge</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>10</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C8k1XX3U</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W37" t="n">
+        <v>15</v>
+      </c>
+      <c r="X37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4bQwe2m2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>11</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG38" t="n">
         <v>201</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="AH38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>YPMjpvmn</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W39" t="n">
+        <v>8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC39" t="n">
         <v>126</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD39" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD39"/>
+  <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,7 @@
         <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T2" t="n">
         <v>4</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Y1jE5n2t</t>
+          <t>IHYEDIog</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>4.65</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="V3" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="W3" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jiISFPim</t>
+          <t>Y1jE5n2t</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Brugge KV U23</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>4.25</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>4.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>9.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>7.7</v>
       </c>
       <c r="AP4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dlLzE3Ma</t>
+          <t>OEP9d9PP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>2.77</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>2.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>10.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA5" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
-      </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06maTCO9</t>
+          <t>jiISFPim</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Club Brugge KV U23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.25</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN6" t="n">
         <v>6</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AO6" t="n">
         <v>19</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>29</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>41</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lvYLEfMF</t>
+          <t>dlLzE3Ma</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,41 +1638,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D. Zagreb</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1699,118 +1699,118 @@
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
         <v>101</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
       </c>
       <c r="AT7" t="n">
         <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
       </c>
-      <c r="AW7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>15</v>
-      </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KfdLeaYN</t>
+          <t>06maTCO9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AZ8" t="n">
         <v>41</v>
       </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S4NmjLBi</t>
+          <t>lvYLEfMF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>D. Zagreb</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>21</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
         <v>6.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL9" t="n">
         <v>12</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>23</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
         <v>3.4</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AU9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA9" t="n">
         <v>41</v>
       </c>
-      <c r="AI9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="BB9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="AT9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2ghyxX1m</t>
+          <t>KfdLeaYN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>17</v>
       </c>
-      <c r="AP10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
       <c r="AY10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t0u3jWGt</t>
+          <t>S4NmjLBi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,173 +2366,173 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>7.7</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R11" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.91</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W11" t="n">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>4.85</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
         <v>13</v>
       </c>
-      <c r="AB11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR11" t="n">
         <v>29</v>
       </c>
-      <c r="AI11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>60</v>
-      </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BA11" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2800,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
@@ -2815,13 +2815,13 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
@@ -2848,7 +2848,7 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -3137,10 +3137,10 @@
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>2.88</v>
@@ -3403,7 +3403,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
         <v>81</v>
@@ -3421,10 +3421,10 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>23</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3877,19 +3877,19 @@
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -3904,10 +3904,10 @@
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3919,25 +3919,25 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
         <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>5.5</v>
@@ -3946,28 +3946,28 @@
         <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX19" t="n">
         <v>11</v>
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
@@ -4044,7 +4044,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -4098,13 +4098,13 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4149,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
         <v>15</v>
@@ -4241,7 +4241,7 @@
         <v>2.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T21" t="n">
         <v>3.4</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>QD2Evsw1</t>
+          <t>nTlqaPOi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,110 +4368,110 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R22" t="n">
         <v>2.88</v>
       </c>
-      <c r="K22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="W22" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
       </c>
       <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="n">
         <v>21</v>
       </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4480,67 +4480,67 @@
         <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nTlqaPOi</t>
+          <t>tSshc3g4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,160 +4560,160 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
         <v>4</v>
       </c>
-      <c r="J23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>21</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W23" t="n">
-        <v>13</v>
-      </c>
-      <c r="X23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AX23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY23" t="n">
         <v>17</v>
       </c>
-      <c r="AA23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AZ23" t="n">
         <v>29</v>
       </c>
-      <c r="AG23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="BA23" t="n">
         <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>51</v>
       </c>
       <c r="BB23" t="n">
         <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tSshc3g4</t>
+          <t>Eut0esOG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,160 +4742,160 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
+        <v>19</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W24" t="n">
+        <v>12</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
         <v>15</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>15</v>
-      </c>
-      <c r="X24" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>29</v>
-      </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR24" t="n">
         <v>41</v>
       </c>
-      <c r="AG24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>67</v>
-      </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
         <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eut0esOG</t>
+          <t>A7Z8gLhT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,37 +4924,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4963,13 +4963,13 @@
         <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T25" t="n">
         <v>3.75</v>
@@ -4981,22 +4981,22 @@
         <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
         <v>21</v>
       </c>
-      <c r="AA25" t="n">
-        <v>15</v>
-      </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>19</v>
@@ -5008,46 +5008,46 @@
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
         <v>15</v>
       </c>
-      <c r="AI25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT25" t="n">
         <v>3.75</v>
@@ -5059,22 +5059,22 @@
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA25" t="n">
         <v>41</v>
       </c>
-      <c r="BA25" t="n">
-        <v>51</v>
-      </c>
       <c r="BB25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC25" t="n">
         <v>301</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A7Z8gLhT</t>
+          <t>jq6mvUel</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="T26" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
         <v>15</v>
       </c>
-      <c r="X26" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y26" t="n">
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AK26" t="n">
         <v>34</v>
       </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC26" t="n">
         <v>81</v>
       </c>
-      <c r="BC26" t="n">
-        <v>301</v>
-      </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jq6mvUel</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I27" t="n">
         <v>3.2</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
         <v>8.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
         <v>2.15</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB27" t="n">
         <v>21</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>34</v>
       </c>
       <c r="AC27" t="n">
         <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AG27" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS27" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB27" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5470,37 +5470,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
         <v>2.45</v>
       </c>
       <c r="K28" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.2</v>
@@ -5515,76 +5515,76 @@
         <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T28" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="W28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>45</v>
       </c>
       <c r="AG28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>9.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ28" t="n">
         <v>32</v>
@@ -5596,25 +5596,25 @@
         <v>175</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AV28" t="n">
         <v>50</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY28" t="n">
         <v>22</v>
       </c>
       <c r="AZ28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA28" t="n">
         <v>100</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>EsFqnzIa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,167 +5642,167 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.88</v>
+        <v>6.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W29" t="n">
+        <v>15</v>
+      </c>
+      <c r="X29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>8.5</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W29" t="n">
-        <v>9</v>
-      </c>
-      <c r="X29" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
-      </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>29</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="AR29" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="AS29" t="n">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BB29" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EsFqnzIa</t>
+          <t>vyFzitF4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.25</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>2.63</v>
       </c>
       <c r="S30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.4</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>2.75</v>
       </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W30" t="n">
+        <v>17</v>
+      </c>
+      <c r="X30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI30" t="n">
         <v>15</v>
       </c>
-      <c r="X30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y30" t="n">
+      <c r="AJ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM30" t="n">
         <v>19</v>
       </c>
-      <c r="Z30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AN30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
         <v>19</v>
       </c>
-      <c r="AF30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI30" t="n">
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU30" t="n">
         <v>7</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK30" t="n">
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX30" t="n">
         <v>11</v>
       </c>
-      <c r="AL30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO30" t="n">
+      <c r="AY30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>34</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="BA30" t="n">
         <v>41</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
-      </c>
       <c r="BB30" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC30" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BD30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QB9BsKic</t>
+          <t>Cr8hTL7K</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.25</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="T31" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="U31" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY31" t="n">
         <v>19</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="BA31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC31" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>GtdhZgZH</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6188,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>6.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>2.63</v>
+        <v>1.78</v>
       </c>
       <c r="S32" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>1.98</v>
       </c>
       <c r="W32" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA32" t="n">
         <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>21</v>
+        <v>6.9</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AH32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI32" t="n">
         <v>13</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>15</v>
       </c>
       <c r="AJ32" t="n">
         <v>10</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM32" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AS32" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU32" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AX32" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ32" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="BA32" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BB32" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC32" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BD32" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cr8hTL7K</t>
+          <t>rTcpyG45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6380,160 +6380,160 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
         <v>3.9</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4.75</v>
-      </c>
       <c r="Q33" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="T33" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="V33" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W33" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="X33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD33" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="AE33" t="n">
         <v>11.75</v>
       </c>
       <c r="AF33" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AG33" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>11.75</v>
       </c>
       <c r="AI33" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
         <v>45</v>
       </c>
       <c r="AL33" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM33" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AQ33" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR33" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS33" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AW33" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AX33" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB33" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC33" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD33" t="n">
         <v>51</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GtdhZgZH</t>
+          <t>lU4ywxzg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6562,154 +6562,154 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="V34" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="W34" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="n">
         <v>8.5</v>
       </c>
-      <c r="X34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AD34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY34" t="n">
         <v>21</v>
       </c>
-      <c r="AB34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA34" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB34" t="n">
         <v>250</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rTcpyG45</t>
+          <t>C8k1XX3U</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6744,88 +6744,88 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.07</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>4.15</v>
       </c>
       <c r="K35" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P35" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V35" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W35" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AB35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF35" t="n">
         <v>45</v>
@@ -6834,67 +6834,67 @@
         <v>250</v>
       </c>
       <c r="AH35" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI35" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AK35" t="n">
-        <v>45</v>
+        <v>15.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AM35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AO35" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AP35" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ35" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AR35" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AS35" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU35" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV35" t="n">
         <v>50</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="AX35" t="n">
-        <v>17.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY35" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AZ35" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="BA35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BB35" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lU4ywxzg</t>
+          <t>4bQwe2m2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
         <v>3.6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="S36" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z36" t="n">
         <v>21</v>
       </c>
       <c r="AA36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE36" t="n">
         <v>15</v>
       </c>
-      <c r="AB36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>12</v>
-      </c>
       <c r="AF36" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AJ36" t="n">
         <v>11</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO36" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AP36" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AX36" t="n">
         <v>17</v>
       </c>
       <c r="AY36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ36" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BA36" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB36" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC36" t="n">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="BD36" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C8k1XX3U</t>
+          <t>YPMjpvmn</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,536 +7098,172 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>2.32</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="P37" t="n">
-        <v>4.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="T37" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
+        <v>8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
         <v>15</v>
       </c>
-      <c r="X37" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF37" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>10</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK37" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AL37" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP37" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AY37" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA37" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="BC37" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD37" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>4bQwe2m2</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2</v>
-      </c>
-      <c r="W38" t="n">
-        <v>8</v>
-      </c>
-      <c r="X38" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>YPMjpvmn</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Umraniyespor</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W39" t="n">
-        <v>8</v>
-      </c>
-      <c r="X39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD39" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1147,7 +1147,7 @@
         <v>3.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T4" t="n">
         <v>4.33</v>
@@ -1323,13 +1323,13 @@
         <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W6" t="n">
         <v>10.25</v>
       </c>
       <c r="X6" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD6" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
         <v>250</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS6" t="n">
         <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
         <v>45</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>22</v>
       </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1848,7 +1848,7 @@
         <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
@@ -2391,7 +2391,7 @@
         <v>5.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
         <v>8.5</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>1.53</v>
@@ -2791,10 +2791,10 @@
         <v>4.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>12</v>
@@ -2833,7 +2833,7 @@
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2842,7 +2842,7 @@
         <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
         <v>51</v>
@@ -2851,7 +2851,7 @@
         <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2869,7 +2869,7 @@
         <v>4.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA13" t="n">
         <v>151</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W6V3fuIE</t>
+          <t>MeE4YhB7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,167 +2912,167 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.05</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.12</v>
-      </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8hp5HV2L</t>
+          <t>W6V3fuIE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
         <v>9.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>12</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
       </c>
-      <c r="AM15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>13</v>
-      </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lrCa1peE</t>
+          <t>8hp5HV2L</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,59 +3276,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.1</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3337,22 +3337,22 @@
         <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
@@ -3361,49 +3361,49 @@
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3415,40 +3415,40 @@
         <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hh4S2xFL</t>
+          <t>lrCa1peE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,82 +3468,82 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.4</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>12</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
         <v>21</v>
       </c>
-      <c r="Y17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>34</v>
-      </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3555,46 +3555,46 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
         <v>67</v>
       </c>
-      <c r="AR17" t="n">
-        <v>81</v>
-      </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3603,22 +3603,22 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tjU6aOPQ</t>
+          <t>hh4S2xFL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,85 +3650,85 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.75</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3737,70 +3737,70 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>9</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>15</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
       <c r="AL18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM18" t="n">
         <v>26</v>
       </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
         <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QN5wf2ml</t>
+          <t>tjU6aOPQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,31 +3832,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.87</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3865,10 +3865,10 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -3883,28 +3883,28 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
         <v>9.5</v>
       </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
       <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
         <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
       </c>
       <c r="AC19" t="n">
         <v>8.5</v>
@@ -3922,37 +3922,37 @@
         <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
@@ -3961,28 +3961,28 @@
         <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bgq7ef7e</t>
+          <t>QN5wf2ml</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,85 +4014,85 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.52</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R20" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12</v>
-      </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4101,70 +4101,70 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
         <v>29</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>41</v>
       </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>101</v>
-      </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>QXnqeErJ</t>
+          <t>bgq7ef7e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,85 +4196,85 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.91</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4283,46 +4283,46 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
         <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>23</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AR21" t="n">
         <v>41</v>
       </c>
-      <c r="AR21" t="n">
-        <v>67</v>
-      </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
@@ -4331,22 +4331,22 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vc0dNXz1</t>
+          <t>QXnqeErJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.63</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
         <v>19</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="n">
         <v>34</v>
       </c>
-      <c r="AA22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
         <v>9.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rV6mPg6l</t>
+          <t>vc0dNXz1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,118 +4560,118 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
         <v>3.25</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
         <v>26</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
         <v>21</v>
       </c>
-      <c r="AM23" t="n">
-        <v>29</v>
-      </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4686,34 +4686,34 @@
         <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SlowNdS7</t>
+          <t>rV6mPg6l</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,170 +4732,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO24" t="n">
         <v>15</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W24" t="n">
-        <v>11</v>
-      </c>
-      <c r="X24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX24" t="n">
         <v>15</v>
       </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="AY24" t="n">
         <v>23</v>
       </c>
-      <c r="AM24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ24" t="n">
         <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Wfw1J3sG</t>
+          <t>SlowNdS7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,170 +4914,170 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y25" t="n">
         <v>9</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
         <v>11</v>
       </c>
-      <c r="Z25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
         <v>23</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AM25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>34</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY25" t="n">
         <v>21</v>
       </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ25" t="n">
         <v>51</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0pE6ilga</t>
+          <t>Wfw1J3sG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,121 +5106,121 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
         <v>34</v>
       </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
       <c r="AN26" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -5229,34 +5229,34 @@
         <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
         <v>67</v>
       </c>
-      <c r="AW26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>101</v>
-      </c>
       <c r="BB26" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pbs5INdM</t>
+          <t>0pE6ilga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,160 +5288,160 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
         <v>10</v>
       </c>
       <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU27" t="n">
         <v>9</v>
       </c>
-      <c r="Z27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM27" t="n">
+      <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY27" t="n">
         <v>34</v>
       </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC27" t="n">
         <v>81</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>501</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SMW9HsCS</t>
+          <t>pbs5INdM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5470,160 +5470,160 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
         <v>11</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="AI28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX28" t="n">
         <v>19</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AY28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB28" t="n">
         <v>151</v>
       </c>
-      <c r="AL28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>351</v>
-      </c>
       <c r="BC28" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UVIyD1Kq</t>
+          <t>SMW9HsCS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,160 +5652,160 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="I29" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="R29" t="n">
         <v>2.5</v>
       </c>
-      <c r="L29" t="n">
+      <c r="S29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.05</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>17</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V29" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="W29" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>6.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>51</v>
+        <v>7.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
         <v>17</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY29" t="n">
         <v>41</v>
       </c>
-      <c r="AG29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ29" t="n">
+      <c r="AZ29" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC29" t="n">
         <v>81</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>451</v>
       </c>
       <c r="BD29" t="n">
         <v>81</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nTlqaPOi</t>
+          <t>UVIyD1Kq</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.68</v>
+        <v>5.25</v>
       </c>
       <c r="H30" t="n">
         <v>4.2</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1.53</v>
       </c>
       <c r="J30" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK30" t="n">
         <v>12</v>
       </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF30" t="n">
+      <c r="AL30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP30" t="n">
         <v>29</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AQ30" t="n">
         <v>81</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AR30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>21</v>
       </c>
-      <c r="AI30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK30" t="n">
+      <c r="BA30" t="n">
         <v>41</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
       </c>
       <c r="BB30" t="n">
         <v>101</v>
       </c>
       <c r="BC30" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tSshc3g4</t>
+          <t>nTlqaPOi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6016,160 +6016,160 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I31" t="n">
         <v>4</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.76</v>
-      </c>
       <c r="J31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>23</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W31" t="n">
+        <v>13</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
         <v>4.33</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>15</v>
-      </c>
-      <c r="X31" t="n">
+      <c r="AO31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>23</v>
       </c>
-      <c r="Y31" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AR31" t="n">
         <v>34</v>
       </c>
-      <c r="AC31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM31" t="n">
+      <c r="AS31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY31" t="n">
         <v>21</v>
       </c>
-      <c r="AN31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB31" t="n">
         <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Eut0esOG</t>
+          <t>tSshc3g4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6198,160 +6198,160 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="n">
         <v>13</v>
       </c>
-      <c r="Y32" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
         <v>15</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>19</v>
       </c>
       <c r="AD32" t="n">
         <v>7.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK32" t="n">
         <v>15</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AL32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM32" t="n">
         <v>21</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="n">
+      <c r="AN32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO32" t="n">
         <v>21</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AP32" t="n">
         <v>23</v>
       </c>
-      <c r="AN32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR32" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX32" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
         <v>41</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>51</v>
       </c>
       <c r="BB32" t="n">
         <v>101</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A7Z8gLhT</t>
+          <t>Eut0esOG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6380,31 +6380,31 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L33" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6419,10 +6419,10 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S33" t="n">
         <v>1.25</v>
@@ -6437,22 +6437,22 @@
         <v>2.63</v>
       </c>
       <c r="W33" t="n">
+        <v>12</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="n">
         <v>15</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AB33" t="n">
         <v>19</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>23</v>
       </c>
       <c r="AC33" t="n">
         <v>19</v>
@@ -6464,46 +6464,46 @@
         <v>11</v>
       </c>
       <c r="AF33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
         <v>34</v>
       </c>
-      <c r="AG33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK33" t="n">
+      <c r="AL33" t="n">
         <v>21</v>
       </c>
-      <c r="AL33" t="n">
-        <v>15</v>
-      </c>
       <c r="AM33" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR33" t="n">
         <v>41</v>
       </c>
-      <c r="AR33" t="n">
-        <v>51</v>
-      </c>
       <c r="AS33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT33" t="n">
         <v>3.75</v>
@@ -6515,22 +6515,22 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC33" t="n">
         <v>301</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4bQxXB9U</t>
+          <t>A7Z8gLhT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,170 +6552,170 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD34" t="n">
         <v>7.5</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="AE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI34" t="n">
         <v>13</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W34" t="n">
-        <v>7</v>
-      </c>
-      <c r="X34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AJ34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK34" t="n">
         <v>21</v>
       </c>
-      <c r="AF34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>101</v>
-      </c>
       <c r="AL34" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AM34" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV34" t="n">
         <v>41</v>
       </c>
-      <c r="AS34" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
       <c r="AW34" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AX34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA34" t="n">
         <v>41</v>
       </c>
-      <c r="AY34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>151</v>
-      </c>
       <c r="BB34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC34" t="n">
         <v>301</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>151</v>
       </c>
       <c r="BD34" t="n">
         <v>151</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jq6mvUel</t>
+          <t>4bQxXB9U</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,179 +6734,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
         <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU35" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG35" t="n">
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB35" t="n">
         <v>301</v>
       </c>
-      <c r="AH35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>201</v>
-      </c>
       <c r="BC35" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>UNhKBFVI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.02</v>
+        <v>1.09</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>26</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W36" t="n">
+        <v>11</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN36" t="n">
         <v>3.25</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W36" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X36" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AO36" t="n">
-        <v>10.25</v>
+        <v>4.5</v>
       </c>
       <c r="AP36" t="n">
         <v>17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>37</v>
+        <v>8.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AS36" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.7</v>
+        <v>12</v>
       </c>
       <c r="AV36" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="AX36" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="AY36" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AZ36" t="n">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="BA36" t="n">
-        <v>100</v>
+        <v>401</v>
       </c>
       <c r="BB36" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC36" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD36" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>jq6mvUel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.75</v>
       </c>
-      <c r="I37" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.95</v>
-      </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
+        <v>7</v>
+      </c>
+      <c r="X37" t="n">
         <v>10</v>
       </c>
-      <c r="X37" t="n">
-        <v>10.75</v>
-      </c>
       <c r="Y37" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
         <v>9</v>
       </c>
-      <c r="AD37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AI37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>12</v>
       </c>
-      <c r="AF37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK37" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
         <v>29</v>
       </c>
       <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY37" t="n">
         <v>29</v>
       </c>
-      <c r="AN37" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ37" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BA37" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EsFqnzIa</t>
+          <t>phYlZFoe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,167 +7280,167 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.25</v>
+        <v>2.05</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="K38" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L38" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="S38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T38" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="W38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA38" t="n">
         <v>15</v>
       </c>
-      <c r="X38" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>51</v>
-      </c>
       <c r="AB38" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE38" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI38" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN38" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO38" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="AR38" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="AS38" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="AU38" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AV38" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX38" t="n">
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ38" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="BA38" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BB38" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>hIycXgG7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,179 +7462,179 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="H39" t="n">
         <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.63</v>
+        <v>3.85</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
-        <v>2.63</v>
+        <v>2.27</v>
       </c>
       <c r="S39" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z39" t="n">
         <v>17</v>
       </c>
-      <c r="X39" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y39" t="n">
+      <c r="AA39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE39" t="n">
         <v>12</v>
       </c>
-      <c r="Z39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AF39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY39" t="n">
         <v>21</v>
       </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA39" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB39" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="BC39" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BD39" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cr8hTL7K</t>
+          <t>EsFqnzIa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,170 +7644,170 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>6.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="S40" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="T40" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="W40" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE40" t="n">
         <v>19</v>
       </c>
-      <c r="AA40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AF40" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="AH40" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AL40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>23</v>
       </c>
-      <c r="AM40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>70</v>
-      </c>
       <c r="BA40" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BB40" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC40" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD40" t="n">
         <v>51</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GtdhZgZH</t>
+          <t>vyFzitF4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,179 +7826,179 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.67</v>
+        <v>2.35</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>21</v>
       </c>
       <c r="N41" t="n">
-        <v>6.9</v>
+        <v>1.03</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="S41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.4</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>2.75</v>
       </c>
-      <c r="U41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W41" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB41" t="n">
         <v>21</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF41" t="n">
         <v>29</v>
       </c>
-      <c r="AC41" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>65</v>
-      </c>
       <c r="AG41" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
         <v>10</v>
       </c>
       <c r="AK41" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM41" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV41" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AY41" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ41" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="BA41" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB41" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BC41" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BD41" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rTcpyG45</t>
+          <t>Cr8hTL7K</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8018,160 +8018,160 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K42" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="L42" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W42" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD42" t="n">
         <v>8.25</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W42" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X42" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.9</v>
       </c>
       <c r="AE42" t="n">
         <v>11.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG42" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AH42" t="n">
-        <v>11.75</v>
+        <v>16</v>
       </c>
       <c r="AI42" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK42" t="n">
         <v>45</v>
       </c>
       <c r="AL42" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM42" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO42" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AR42" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB42" t="n">
         <v>175</v>
       </c>
-      <c r="AT42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>250</v>
-      </c>
       <c r="BC42" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD42" t="n">
         <v>51</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lU4ywxzg</t>
+          <t>GtdhZgZH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8200,154 +8200,154 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K43" t="n">
         <v>2.1</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="L43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P43" t="n">
         <v>3.05</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="Q43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W43" t="n">
         <v>8.5</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W43" t="n">
-        <v>10.25</v>
-      </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA43" t="n">
         <v>21</v>
       </c>
-      <c r="AA43" t="n">
-        <v>15</v>
-      </c>
       <c r="AB43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP43" t="n">
         <v>20</v>
       </c>
-      <c r="AC43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG43" t="n">
+      <c r="AQ43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS43" t="n">
         <v>250</v>
       </c>
-      <c r="AH43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>175</v>
-      </c>
       <c r="AT43" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW43" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AX43" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ43" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BA43" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB43" t="n">
         <v>250</v>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C8k1XX3U</t>
+          <t>rTcpyG45</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8382,88 +8382,88 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.9</v>
+        <v>2.07</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.15</v>
+        <v>2.6</v>
       </c>
       <c r="K44" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L44" t="n">
-        <v>2.32</v>
+        <v>3.65</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R44" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="T44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V44" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="W44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA44" t="n">
         <v>15</v>
       </c>
-      <c r="X44" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>32</v>
-      </c>
       <c r="AB44" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD44" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE44" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF44" t="n">
         <v>45</v>
@@ -8472,67 +8472,67 @@
         <v>250</v>
       </c>
       <c r="AH44" t="n">
-        <v>9.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI44" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AK44" t="n">
-        <v>15.5</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AM44" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AN44" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="AO44" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AQ44" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AR44" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AS44" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV44" t="n">
         <v>50</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="AX44" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
       <c r="AY44" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AZ44" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="BA44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BB44" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC44" t="n">
         <v>51</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4bQwe2m2</t>
+          <t>lU4ywxzg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,354 +8554,718 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.25</v>
       </c>
-      <c r="H45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R45" t="n">
         <v>2.2</v>
       </c>
-      <c r="L45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>11</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S45" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="T45" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U45" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="X45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z45" t="n">
         <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AC45" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AH45" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ45" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK45" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM45" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="AO45" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AP45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY45" t="n">
         <v>21</v>
       </c>
-      <c r="AQ45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ45" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="BA45" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BB45" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC45" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD45" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>C8k1XX3U</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W46" t="n">
+        <v>15</v>
+      </c>
+      <c r="X46" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4bQwe2m2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>YPMjpvmn</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>01/11/2024</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>TURKEY - 1. LIG</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Boluspor</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Umraniyespor</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="G48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.1</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T48" t="n">
         <v>2.5</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T46" t="n">
+      <c r="U48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT48" t="n">
         <v>2.5</v>
       </c>
-      <c r="U46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W46" t="n">
-        <v>8</v>
-      </c>
-      <c r="X46" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AU48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX48" t="n">
         <v>15</v>
       </c>
-      <c r="AF46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK46" t="n">
+      <c r="AY48" t="n">
         <v>26</v>
       </c>
-      <c r="AL46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR46" t="n">
+      <c r="AZ48" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA48" t="n">
         <v>81</v>
       </c>
-      <c r="AS46" t="n">
+      <c r="BB48" t="n">
         <v>201</v>
       </c>
-      <c r="AT46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC46" t="n">
+      <c r="BC48" t="n">
         <v>126</v>
       </c>
-      <c r="BD46" t="n">
+      <c r="BD48" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD48"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -777,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -1147,7 +1147,7 @@
         <v>3.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
         <v>4.33</v>
@@ -1302,13 +1302,13 @@
         <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1389,10 +1389,10 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>
@@ -1475,79 +1475,79 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V6" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>40</v>
@@ -1556,64 +1556,64 @@
         <v>250</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL6" t="n">
         <v>25</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS6" t="n">
         <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>45</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="n">
         <v>90</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>100</v>
       </c>
       <c r="BB6" t="n">
         <v>200</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1848,7 +1848,7 @@
         <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
@@ -2415,16 +2415,16 @@
         <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2433,19 +2433,19 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>41</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
         <v>101</v>
       </c>
       <c r="AA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="n">
         <v>51</v>
@@ -2475,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2484,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2502,7 +2502,7 @@
         <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>9.5</v>
@@ -2520,7 +2520,7 @@
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>41</v>
@@ -2755,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>1.53</v>
@@ -2785,16 +2785,16 @@
         <v>3.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>12</v>
@@ -2833,7 +2833,7 @@
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2851,7 +2851,7 @@
         <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2866,10 +2866,10 @@
         <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
         <v>151</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3510,13 +3510,13 @@
         <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -3528,7 +3528,7 @@
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
@@ -3594,7 +3594,7 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3865,10 +3865,10 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="n">
         <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -4247,10 +4247,10 @@
         <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
@@ -4274,16 +4274,16 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
         <v>17</v>
@@ -4304,16 +4304,16 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
         <v>7.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4331,7 +4331,7 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4343,10 +4343,10 @@
         <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -4584,13 +4584,13 @@
         <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
@@ -4599,10 +4599,10 @@
         <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
         <v>1.33</v>
@@ -4620,10 +4620,10 @@
         <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
         <v>41</v>
@@ -4653,10 +4653,10 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -4668,7 +4668,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>19</v>
@@ -4695,7 +4695,7 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
@@ -4769,22 +4769,22 @@
         <v>3.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J32" t="n">
         <v>4</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.33</v>
       </c>
       <c r="K32" t="n">
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6249,16 +6249,16 @@
         <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W32" t="n">
         <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
         <v>13</v>
@@ -6270,7 +6270,7 @@
         <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -6285,10 +6285,10 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
         <v>10</v>
@@ -6297,7 +6297,7 @@
         <v>8.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="n">
         <v>13</v>
@@ -6309,19 +6309,19 @@
         <v>6</v>
       </c>
       <c r="AO32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP32" t="n">
         <v>23</v>
       </c>
       <c r="AQ32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
         <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
         <v>3.4</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6852,7 +6852,7 @@
         <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO35" t="n">
         <v>6.5</v>
@@ -6873,13 +6873,13 @@
         <v>3.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX35" t="n">
         <v>41</v>
@@ -7117,13 +7117,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -7132,13 +7132,13 @@
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -7147,10 +7147,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7252,7 +7252,7 @@
         <v>29</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA37" t="n">
         <v>81</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>phYlZFoe</t>
+          <t>EsFqnzIa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,167 +7280,167 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al-Shahaniya</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.62</v>
+        <v>6.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="S38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="W38" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
-        <v>10.75</v>
+        <v>34</v>
       </c>
       <c r="Y38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB38" t="n">
+      <c r="AK38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ38" t="n">
         <v>23</v>
       </c>
-      <c r="AC38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>80</v>
-      </c>
       <c r="BA38" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hIycXgG7</t>
+          <t>vyFzitF4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,179 +7462,179 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.88</v>
+        <v>2.75</v>
       </c>
       <c r="H39" t="n">
         <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>3.85</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="n">
+        <v>21</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.03</v>
       </c>
-      <c r="N39" t="n">
-        <v>9</v>
-      </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P39" t="n">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R39" t="n">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="S39" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="V39" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="W39" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF39" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="n">
         <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX39" t="n">
         <v>12</v>
       </c>
-      <c r="AK39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="BA39" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="BB39" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BC39" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BD39" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EsFqnzIa</t>
+          <t>Cr8hTL7K</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,170 +7644,170 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.25</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P40" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="T40" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="V40" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="X40" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z40" t="n">
         <v>19</v>
       </c>
-      <c r="Z40" t="n">
-        <v>67</v>
-      </c>
       <c r="AA40" t="n">
-        <v>51</v>
+        <v>13.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE40" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY40" t="n">
         <v>19</v>
       </c>
-      <c r="AF40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ40" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="BA40" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BB40" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC40" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD40" t="n">
         <v>51</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>GtdhZgZH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,179 +7826,179 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>2.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W41" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL41" t="n">
         <v>21</v>
       </c>
-      <c r="N41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W41" t="n">
-        <v>15</v>
-      </c>
-      <c r="X41" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB41" t="n">
+      <c r="AM41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY41" t="n">
         <v>21</v>
       </c>
-      <c r="AC41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ41" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BA41" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB41" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC41" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BD41" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cr8hTL7K</t>
+          <t>rTcpyG45</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8018,160 +8018,160 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P42" t="n">
         <v>3.9</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4.75</v>
-      </c>
       <c r="Q42" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="R42" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S42" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="T42" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="V42" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W42" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="AE42" t="n">
         <v>11.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AG42" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AH42" t="n">
-        <v>16</v>
+        <v>11.75</v>
       </c>
       <c r="AI42" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK42" t="n">
         <v>45</v>
       </c>
       <c r="AL42" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM42" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AQ42" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR42" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS42" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AX42" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ42" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA42" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB42" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC42" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD42" t="n">
         <v>51</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GtdhZgZH</t>
+          <t>lU4ywxzg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8200,157 +8200,157 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I43" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="T43" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V43" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="W43" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC43" t="n">
         <v>8.5</v>
       </c>
-      <c r="X43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AD43" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="AE43" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR43" t="n">
         <v>65</v>
       </c>
-      <c r="AG43" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>80</v>
-      </c>
       <c r="AS43" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW43" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AX43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY43" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AZ43" t="n">
         <v>65</v>
       </c>
       <c r="BA43" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB43" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC43" t="n">
         <v>51</v>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>rTcpyG45</t>
+          <t>C8k1XX3U</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8382,88 +8382,88 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.07</v>
+        <v>3.9</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="J44" t="n">
-        <v>2.6</v>
+        <v>4.15</v>
       </c>
       <c r="K44" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P44" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R44" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S44" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U44" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V44" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W44" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AA44" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AB44" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE44" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF44" t="n">
         <v>45</v>
@@ -8472,67 +8472,67 @@
         <v>250</v>
       </c>
       <c r="AH44" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI44" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AK44" t="n">
-        <v>45</v>
+        <v>15.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AM44" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AO44" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AP44" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ44" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AR44" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AS44" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV44" t="n">
         <v>50</v>
       </c>
       <c r="AW44" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="AX44" t="n">
-        <v>17.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY44" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="BA44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BB44" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC44" t="n">
         <v>51</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lU4ywxzg</t>
+          <t>4bQwe2m2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,179 +8554,179 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V45" t="n">
         <v>2.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.32</v>
-      </c>
       <c r="W45" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
         <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z45" t="n">
         <v>21</v>
       </c>
       <c r="AA45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI45" t="n">
         <v>15</v>
       </c>
-      <c r="AB45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK45" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AM45" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AP45" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AR45" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS45" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU45" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AX45" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AY45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ45" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BA45" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BB45" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC45" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD45" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C8k1XX3U</t>
+          <t>YPMjpvmn</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,536 +8736,172 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>2.63</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="J46" t="n">
-        <v>4.15</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L46" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="S46" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="T46" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="U46" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="W46" t="n">
+        <v>8</v>
+      </c>
+      <c r="X46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE46" t="n">
         <v>15</v>
       </c>
-      <c r="X46" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF46" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AI46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AL46" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AM46" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AN46" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ46" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS46" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AY46" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AZ46" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA46" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BB46" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="BC46" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD46" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>4bQwe2m2</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>11</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W47" t="n">
-        <v>9</v>
-      </c>
-      <c r="X47" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>YPMjpvmn</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Umraniyespor</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X48" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD48" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD42"/>
+  <dimension ref="A1:BD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
         <v>1.11</v>
@@ -777,10 +777,10 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.2</v>
@@ -789,37 +789,37 @@
         <v>4.33</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
       </c>
       <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
         <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>21</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -834,7 +834,7 @@
         <v>51</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>126</v>
@@ -846,16 +846,16 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>5.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -867,34 +867,34 @@
         <v>4.33</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -944,7 +944,7 @@
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -983,13 +983,13 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -1007,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -1028,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -1064,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2251,16 +2251,16 @@
         <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>21</v>
@@ -2284,34 +2284,34 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
         <v>29</v>
       </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
         <v>15</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -2427,73 +2427,73 @@
         <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
         <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
         <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
         <v>29</v>
@@ -2505,31 +2505,31 @@
         <v>4.33</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
         <v>151</v>
       </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
-      </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -3146,13 +3146,13 @@
         <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
         <v>1.8</v>
@@ -3194,7 +3194,7 @@
         <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -3230,7 +3230,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3525,7 +3525,7 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -3534,13 +3534,13 @@
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
@@ -3564,7 +3564,7 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
@@ -3573,7 +3573,7 @@
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
@@ -3597,7 +3597,7 @@
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,10 +3606,10 @@
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vc0dNXz1</t>
+          <t>SlowNdS7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,41 +4186,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4229,118 +4229,118 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" t="n">
         <v>13</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
         <v>21</v>
       </c>
-      <c r="Y21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
       </c>
       <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH21" t="n">
         <v>13</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>41</v>
       </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rV6mPg6l</t>
+          <t>Wfw1J3sG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,59 +4368,59 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.25</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
         <v>3.25</v>
       </c>
-      <c r="K22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4432,7 +4432,7 @@
         <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
         <v>8.5</v>
@@ -4441,19 +4441,19 @@
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4468,10 +4468,10 @@
         <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4486,22 +4486,22 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>2.63</v>
@@ -4513,13 +4513,13 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4528,7 +4528,7 @@
         <v>67</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SlowNdS7</t>
+          <t>0pE6ilga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.25</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI23" t="n">
         <v>15</v>
       </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
         <v>34</v>
       </c>
-      <c r="AG23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
         <v>29</v>
       </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wfw1J3sG</t>
+          <t>pbs5INdM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,85 +4742,85 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="U24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
         <v>9</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4829,58 +4829,58 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>10</v>
-      </c>
       <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
         <v>26</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
@@ -4889,13 +4889,13 @@
         <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0pE6ilga</t>
+          <t>SMW9HsCS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,157 +4924,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>1.18</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>1.58</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>2.87</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>17</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X25" t="n">
         <v>6.5</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6</v>
-      </c>
-      <c r="X25" t="n">
-        <v>10</v>
-      </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
         <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH25" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR25" t="n">
         <v>34</v>
       </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>81</v>
-      </c>
       <c r="AS25" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pbs5INdM</t>
+          <t>UVIyD1Kq</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,160 +5106,160 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
         <v>17</v>
       </c>
-      <c r="AB26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL26" t="n">
         <v>11</v>
       </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="n">
+      <c r="AM26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>26</v>
       </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>11</v>
-      </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU26" t="n">
         <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SMW9HsCS</t>
+          <t>nTlqaPOi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>23</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>13</v>
+      </c>
+      <c r="X27" t="n">
         <v>12</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L27" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
         <v>17</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
         <v>8.5</v>
       </c>
-      <c r="X27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>34</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC27" t="n">
         <v>201</v>
       </c>
-      <c r="BB27" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>81</v>
-      </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UVIyD1Kq</t>
+          <t>tSshc3g4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,143 +5460,143 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="J28" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.57</v>
       </c>
-      <c r="R28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X28" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>8.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
@@ -5605,16 +5605,16 @@
         <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
         <v>41</v>
@@ -5623,16 +5623,16 @@
         <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BD28" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nTlqaPOi</t>
+          <t>Eut0esOG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,64 +5652,64 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V29" t="n">
         <v>2.63</v>
       </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>23</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T29" t="n">
-        <v>4</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -5721,34 +5721,34 @@
         <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
@@ -5763,31 +5763,31 @@
         <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5805,7 +5805,7 @@
         <v>101</v>
       </c>
       <c r="BC29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tSshc3g4</t>
+          <t>A7Z8gLhT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5834,160 +5834,160 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L30" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="V30" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
       </c>
       <c r="X30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
         <v>21</v>
       </c>
-      <c r="Y30" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>29</v>
-      </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
         <v>7.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
         <v>13</v>
       </c>
-      <c r="AF30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM30" t="n">
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
         <v>19</v>
       </c>
-      <c r="AP30" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA30" t="n">
         <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC30" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Eut0esOG</t>
+          <t>4bQxXB9U</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,170 +6006,170 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
         <v>3.4</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>17</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W31" t="n">
-        <v>12</v>
-      </c>
-      <c r="X31" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AO31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP31" t="n">
         <v>19</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AQ31" t="n">
         <v>19</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>34</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
       </c>
       <c r="AS31" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX31" t="n">
         <v>41</v>
       </c>
-      <c r="AW31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>15</v>
-      </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ31" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC31" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A7Z8gLhT</t>
+          <t>UNhKBFVI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6188,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="J32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.4</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L32" t="n">
-        <v>2.63</v>
+        <v>15</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="R32" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
       </c>
       <c r="Z32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="n">
         <v>34</v>
       </c>
-      <c r="AA32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>23</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>19</v>
       </c>
-      <c r="AD32" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="n">
         <v>101</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU32" t="n">
         <v>12</v>
       </c>
-      <c r="AI32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>7</v>
-      </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="AX32" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="AY32" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AZ32" t="n">
-        <v>34</v>
+        <v>501</v>
       </c>
       <c r="BA32" t="n">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="BB32" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4bQxXB9U</t>
+          <t>jq6mvUel</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="H33" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="R33" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
         <v>7</v>
       </c>
       <c r="X33" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>29</v>
       </c>
       <c r="AC33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>12</v>
       </c>
-      <c r="AD33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR33" t="n">
         <v>67</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AS33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB33" t="n">
         <v>251</v>
       </c>
-      <c r="AH33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>301</v>
-      </c>
       <c r="BC33" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UNhKBFVI</t>
+          <t>EsFqnzIa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.09</v>
+        <v>6.5</v>
       </c>
       <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15</v>
+      </c>
+      <c r="X34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC34" t="n">
         <v>10</v>
       </c>
-      <c r="I34" t="n">
-        <v>21</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>15</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N34" t="n">
-        <v>26</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P34" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W34" t="n">
-        <v>11</v>
-      </c>
-      <c r="X34" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z34" t="n">
+      <c r="AD34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH34" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB34" t="n">
+      <c r="AI34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO34" t="n">
         <v>34</v>
       </c>
-      <c r="AC34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AP34" t="n">
         <v>41</v>
       </c>
-      <c r="AF34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>401</v>
-      </c>
-      <c r="AL34" t="n">
+      <c r="AQ34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR34" t="n">
         <v>151</v>
       </c>
-      <c r="AM34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>29</v>
-      </c>
       <c r="AS34" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT34" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV34" t="n">
         <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="AX34" t="n">
-        <v>67</v>
+        <v>7.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>501</v>
+        <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BB34" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC34" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jq6mvUel</t>
+          <t>vyFzitF4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,165 +6739,165 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>19</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="S35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.44</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>2.63</v>
       </c>
-      <c r="U35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>10</v>
       </c>
-      <c r="Y35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AK35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM35" t="n">
         <v>19</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AN35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP35" t="n">
         <v>19</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>23</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX35" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ35" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA35" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB35" t="n">
         <v>81</v>
       </c>
-      <c r="BB35" t="n">
-        <v>251</v>
-      </c>
       <c r="BC35" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="BD35" t="n">
         <v>81</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EsFqnzIa</t>
+          <t>Cr8hTL7K</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,170 +6916,170 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.5</v>
+        <v>1.98</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>2.42</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>2.57</v>
       </c>
       <c r="W36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH36" t="n">
         <v>15</v>
       </c>
-      <c r="X36" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE36" t="n">
+      <c r="AI36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY36" t="n">
         <v>19</v>
       </c>
-      <c r="AF36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="BA36" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BB36" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC36" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD36" t="n">
         <v>51</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>GtdhZgZH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
         <v>2.75</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="U37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
         <v>2.75</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
-        <v>11</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W37" t="n">
-        <v>15</v>
-      </c>
-      <c r="X37" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AU37" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AW37" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AX37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ37" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="BA37" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB37" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC37" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="BD37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cr8hTL7K</t>
+          <t>rTcpyG45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7290,160 +7290,160 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P38" t="n">
         <v>3.9</v>
       </c>
-      <c r="I38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4.75</v>
-      </c>
       <c r="Q38" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="T38" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="V38" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="W38" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="X38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>8.25</v>
+        <v>6.8</v>
       </c>
       <c r="AE38" t="n">
         <v>11.75</v>
       </c>
       <c r="AF38" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AH38" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI38" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK38" t="n">
         <v>45</v>
       </c>
       <c r="AL38" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AM38" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO38" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR38" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS38" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="AU38" t="n">
         <v>6.4</v>
       </c>
       <c r="AV38" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW38" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AY38" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ38" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BA38" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BB38" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC38" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD38" t="n">
         <v>51</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GtdhZgZH</t>
+          <t>lU4ywxzg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7472,157 +7472,157 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I39" t="n">
-        <v>2.52</v>
+        <v>2.95</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T39" t="n">
         <v>3.1</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.72</v>
-      </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="W39" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="X39" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Z39" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA39" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AB39" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="AE39" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR39" t="n">
         <v>65</v>
       </c>
-      <c r="AG39" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ39" t="n">
+      <c r="AS39" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ39" t="n">
         <v>65</v>
       </c>
-      <c r="AR39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>55</v>
-      </c>
       <c r="BA39" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC39" t="n">
         <v>51</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>rTcpyG45</t>
+          <t>C8k1XX3U</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7654,88 +7654,88 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.07</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="K40" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>3.65</v>
+        <v>2.27</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P40" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U40" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V40" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W40" t="n">
-        <v>9.75</v>
+        <v>15.5</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AA40" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF40" t="n">
         <v>45</v>
@@ -7744,67 +7744,67 @@
         <v>250</v>
       </c>
       <c r="AH40" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI40" t="n">
-        <v>18.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AK40" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AL40" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="AO40" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AP40" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AQ40" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AR40" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AS40" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT40" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV40" t="n">
         <v>50</v>
       </c>
       <c r="AW40" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="AX40" t="n">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ40" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="BA40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="BB40" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BC40" t="n">
         <v>51</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lU4ywxzg</t>
+          <t>nVPNCnW8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,354 +7826,172 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH41" t="n">
         <v>8.5</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W41" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="AI41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>12</v>
       </c>
-      <c r="Y41" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC41" t="n">
+      <c r="AK41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU41" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD41" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AV41" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY41" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AZ41" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA41" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="BB41" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BC41" t="n">
         <v>51</v>
       </c>
       <c r="BD41" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>C8k1XX3U</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Stade Nyonnais</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W42" t="n">
-        <v>15</v>
-      </c>
-      <c r="X42" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD42" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -765,10 +765,10 @@
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.11</v>
@@ -870,7 +870,7 @@
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OEP9d9PP</t>
+          <t>QTG2MMIC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>2.92</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AI6" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>023IUTje</t>
+          <t>OEP9d9PP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX7" t="n">
         <v>13</v>
       </c>
-      <c r="AB7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AY7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jiISFPim</t>
+          <t>023IUTje</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club Brugge KV U23</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
         <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1863,46 +1863,46 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
         <v>13</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AB8" t="n">
         <v>19</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1911,88 +1911,88 @@
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AP8" t="n">
         <v>17</v>
       </c>
-      <c r="AL8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dlLzE3Ma</t>
+          <t>jiISFPim</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,49 +2012,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Club Brugge KV U23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2069,31 +2069,31 @@
         <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2102,40 +2102,40 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
         <v>3.4</v>
@@ -2147,34 +2147,34 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
-      </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KfdLeaYN</t>
+          <t>dlLzE3Ma</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
         <v>13</v>
       </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>26</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AZ10" t="n">
         <v>67</v>
       </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S4NmjLBi</t>
+          <t>pUuyqWeM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
         <v>6.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
         <v>23</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
         <v>7</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>29</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
         <v>81</v>
       </c>
-      <c r="AT11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
       <c r="AW11" t="n">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MeE4YhB7</t>
+          <t>KfdLeaYN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.4</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
         <v>23</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>67</v>
       </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>151</v>
       </c>
-      <c r="BB12" t="n">
-        <v>351</v>
-      </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W6V3fuIE</t>
+          <t>S4NmjLBi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,174 +2735,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="L13" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8hp5HV2L</t>
+          <t>MeE4YhB7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
         <v>41</v>
       </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19</v>
-      </c>
       <c r="AM14" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
       </c>
       <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
         <v>151</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lrCa1peE</t>
+          <t>W6V3fuIE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,65 +3094,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="U15" t="n">
         <v>1.8</v>
@@ -3161,112 +3161,112 @@
         <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
       </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>17</v>
-      </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hh4S2xFL</t>
+          <t>8hp5HV2L</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,41 +3276,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3319,16 +3319,16 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3343,94 +3343,94 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
         <v>21</v>
       </c>
-      <c r="Y16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>34</v>
-      </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
         <v>67</v>
       </c>
-      <c r="AR16" t="n">
-        <v>81</v>
-      </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
@@ -3439,16 +3439,16 @@
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tjU6aOPQ</t>
+          <t>lrCa1peE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,49 +3468,49 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,19 +3519,19 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>23</v>
@@ -3543,19 +3543,19 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
@@ -3567,16 +3567,16 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
@@ -3603,7 +3603,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QN5wf2ml</t>
+          <t>hh4S2xFL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,121 +3650,121 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
         <v>29</v>
       </c>
       <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
         <v>41</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
         <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3773,10 +3773,10 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,19 +3785,19 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
         <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bgq7ef7e</t>
+          <t>tjU6aOPQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,55 +3832,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.1</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
         <v>1.83</v>
@@ -3892,94 +3892,94 @@
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>11</v>
       </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
         <v>8</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX19" t="n">
         <v>17</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
         <v>201</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QXnqeErJ</t>
+          <t>QN5wf2ml</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,31 +4014,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4047,16 +4047,16 @@
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4065,31 +4065,31 @@
         <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4101,40 +4101,40 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4143,28 +4143,28 @@
         <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
         <v>67</v>
       </c>
-      <c r="BA20" t="n">
-        <v>101</v>
-      </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SlowNdS7</t>
+          <t>bgq7ef7e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.25</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>12</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>17</v>
       </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR21" t="n">
         <v>41</v>
       </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
       <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
         <v>101</v>
       </c>
-      <c r="AT21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>51</v>
-      </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Wfw1J3sG</t>
+          <t>QXnqeErJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,59 +4368,59 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4429,76 +4429,76 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.8</v>
       </c>
-      <c r="V22" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X22" t="n">
         <v>8.5</v>
       </c>
-      <c r="X22" t="n">
-        <v>13</v>
-      </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
         <v>29</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>34</v>
       </c>
       <c r="AC22" t="n">
         <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
@@ -4507,28 +4507,28 @@
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0pE6ilga</t>
+          <t>SlowNdS7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L23" t="n">
         <v>3.25</v>
       </c>
-      <c r="K23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.5</v>
       </c>
-      <c r="P23" t="n">
+      <c r="V23" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>23</v>
       </c>
       <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
         <v>23</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AN23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>41</v>
       </c>
-      <c r="AC23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
         <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
         <v>101</v>
       </c>
-      <c r="BB23" t="n">
-        <v>301</v>
-      </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pbs5INdM</t>
+          <t>Wfw1J3sG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,85 +4742,85 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.25</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X24" t="n">
         <v>13</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>10</v>
-      </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4829,58 +4829,58 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
@@ -4889,13 +4889,13 @@
         <v>51</v>
       </c>
       <c r="BA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
         <v>81</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>501</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SMW9HsCS</t>
+          <t>0pE6ilga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,157 +4924,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.18</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
         <v>6</v>
       </c>
-      <c r="I25" t="n">
-        <v>12</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="X25" t="n">
         <v>10</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>17</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>17</v>
-      </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
         <v>29</v>
       </c>
-      <c r="AI25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
         <v>81</v>
       </c>
-      <c r="AM25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>34</v>
-      </c>
       <c r="AS25" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BA25" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UVIyD1Kq</t>
+          <t>pbs5INdM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,85 +5106,85 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.05</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="n">
         <v>17</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19</v>
-      </c>
-      <c r="X26" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>41</v>
-      </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5193,73 +5193,73 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
         <v>11</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AP26" t="n">
         <v>21</v>
       </c>
-      <c r="AN26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC26" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nTlqaPOi</t>
+          <t>SMW9HsCS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="K27" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="R27" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="V27" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="W27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>13</v>
-      </c>
-      <c r="X27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>34</v>
       </c>
       <c r="AS27" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BB27" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC27" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tSshc3g4</t>
+          <t>UVIyD1Kq</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,143 +5460,143 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
+        <v>17</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>19</v>
+      </c>
+      <c r="X28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE28" t="n">
         <v>15</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W28" t="n">
-        <v>15</v>
-      </c>
-      <c r="X28" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ28" t="n">
         <v>8.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
@@ -5605,16 +5605,16 @@
         <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA28" t="n">
         <v>41</v>
@@ -5623,16 +5623,16 @@
         <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD28" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Eut0esOG</t>
+          <t>nTlqaPOi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,64 +5652,64 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R29" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="T29" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="U29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -5718,43 +5718,43 @@
         <v>9</v>
       </c>
       <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="n">
         <v>17</v>
       </c>
-      <c r="AA29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
         <v>26</v>
@@ -5763,31 +5763,31 @@
         <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5805,7 +5805,7 @@
         <v>101</v>
       </c>
       <c r="BC29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A7Z8gLhT</t>
+          <t>tSshc3g4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5834,160 +5834,160 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R30" t="n">
         <v>2.15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T30" t="n">
         <v>3.4</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>17</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
         <v>7.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>15</v>
       </c>
       <c r="AM30" t="n">
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4bQxXB9U</t>
+          <t>Eut0esOG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,170 +6006,170 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>19</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W31" t="n">
+        <v>12</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
         <v>4.33</v>
       </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>7</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W31" t="n">
-        <v>7</v>
-      </c>
-      <c r="X31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="n">
+      <c r="AO31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>26</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB31" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UNhKBFVI</t>
+          <t>A7Z8gLhT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6188,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>17</v>
+      </c>
+      <c r="X32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX32" t="n">
         <v>10</v>
       </c>
-      <c r="I32" t="n">
-        <v>21</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N32" t="n">
-        <v>26</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P32" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W32" t="n">
-        <v>11</v>
-      </c>
-      <c r="X32" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AY32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
         <v>41</v>
       </c>
-      <c r="AF32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>401</v>
-      </c>
-      <c r="AL32" t="n">
+      <c r="BB32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD32" t="n">
         <v>151</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>501</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>401</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jq6mvUel</t>
+          <t>4bQxXB9U</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
         <v>4</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="S33" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T33" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
         <v>7</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="n">
         <v>29</v>
       </c>
       <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AX33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB33" t="n">
         <v>301</v>
       </c>
-      <c r="AH33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>251</v>
-      </c>
       <c r="BC33" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD33" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EsFqnzIa</t>
+          <t>UNhKBFVI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>23</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W34" t="n">
+        <v>11</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z34" t="n">
         <v>6.5</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>11</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W34" t="n">
-        <v>15</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="AA34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB34" t="n">
         <v>34</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AC34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD34" t="n">
         <v>21</v>
       </c>
-      <c r="Z34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG34" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>6.5</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL34" t="n">
+      <c r="AR34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU34" t="n">
         <v>13</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9</v>
       </c>
       <c r="AV34" t="n">
         <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="AX34" t="n">
-        <v>7.5</v>
+        <v>67</v>
       </c>
       <c r="AY34" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AZ34" t="n">
-        <v>23</v>
+        <v>501</v>
       </c>
       <c r="BA34" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BB34" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC34" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vyFzitF4</t>
+          <t>EsFqnzIa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,173 +6734,173 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
         <v>2.25</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L35" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="M35" t="n">
-        <v>19</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
         <v>15</v>
       </c>
       <c r="X35" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y35" t="n">
         <v>19</v>
       </c>
-      <c r="Y35" t="n">
-        <v>12</v>
-      </c>
       <c r="Z35" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AC35" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
         <v>7.5</v>
       </c>
       <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK35" t="n">
         <v>11</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AL35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM35" t="n">
         <v>29</v>
       </c>
-      <c r="AG35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK35" t="n">
+      <c r="AN35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>23</v>
       </c>
-      <c r="AL35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>34</v>
-      </c>
       <c r="BA35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC35" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -6935,124 +6935,124 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="K36" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="S36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V36" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="W36" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AE36" t="n">
         <v>11.25</v>
       </c>
       <c r="AF36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG36" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK36" t="n">
         <v>45</v>
       </c>
       <c r="AL36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM36" t="n">
         <v>24</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO36" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR36" t="n">
         <v>50</v>
       </c>
       <c r="AS36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU36" t="n">
         <v>6.3</v>
@@ -7061,16 +7061,16 @@
         <v>40</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AX36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY36" t="n">
         <v>19</v>
       </c>
       <c r="AZ36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA36" t="n">
         <v>80</v>
@@ -7126,82 +7126,82 @@
         <v>2.32</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L37" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.78</v>
       </c>
-      <c r="S37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W37" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
         <v>37</v>
       </c>
       <c r="AA37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC37" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>9.25</v>
@@ -7213,37 +7213,37 @@
         <v>19.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS37" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV37" t="n">
         <v>60</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX37" t="n">
         <v>12.5</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H38" t="n">
         <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J38" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="K38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -7335,10 +7335,10 @@
         <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U38" t="n">
         <v>1.55</v>
@@ -7350,13 +7350,13 @@
         <v>9.75</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="n">
         <v>14.5</v>
@@ -7368,7 +7368,7 @@
         <v>8.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE38" t="n">
         <v>11.75</v>
@@ -7386,7 +7386,7 @@
         <v>19.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK38" t="n">
         <v>45</v>
@@ -7395,28 +7395,28 @@
         <v>27</v>
       </c>
       <c r="AM38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
         <v>4.2</v>
       </c>
       <c r="AO38" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP38" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS38" t="n">
         <v>150</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU38" t="n">
         <v>6.4</v>
@@ -7425,10 +7425,10 @@
         <v>45</v>
       </c>
       <c r="AW38" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY38" t="n">
         <v>22</v>
@@ -7481,10 +7481,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
         <v>2.95</v>
@@ -7493,10 +7493,10 @@
         <v>2.72</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -7505,16 +7505,16 @@
         <v>8.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S39" t="n">
         <v>1.32</v>
@@ -7526,19 +7526,19 @@
         <v>1.53</v>
       </c>
       <c r="V39" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y39" t="n">
         <v>8.75</v>
       </c>
       <c r="Z39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA39" t="n">
         <v>16</v>
@@ -7550,10 +7550,10 @@
         <v>8.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE39" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF39" t="n">
         <v>40</v>
@@ -7562,10 +7562,10 @@
         <v>250</v>
       </c>
       <c r="AH39" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>10.5</v>
@@ -7580,19 +7580,19 @@
         <v>25</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO39" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>40</v>
       </c>
       <c r="AR39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS39" t="n">
         <v>175</v>
@@ -7601,7 +7601,7 @@
         <v>3.1</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV39" t="n">
         <v>45</v>
@@ -7610,7 +7610,7 @@
         <v>5.1</v>
       </c>
       <c r="AX39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY39" t="n">
         <v>19.5</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
         <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J40" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L40" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7708,13 +7708,13 @@
         <v>1.57</v>
       </c>
       <c r="V40" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W40" t="n">
         <v>15.5</v>
       </c>
       <c r="X40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y40" t="n">
         <v>13.5</v>
@@ -7723,7 +7723,7 @@
         <v>65</v>
       </c>
       <c r="AA40" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB40" t="n">
         <v>32</v>
@@ -7732,10 +7732,10 @@
         <v>8.75</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE40" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF40" t="n">
         <v>45</v>
@@ -7750,10 +7750,10 @@
         <v>9.75</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
         <v>12.5</v>
@@ -7762,7 +7762,7 @@
         <v>19.5</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AO40" t="n">
         <v>22</v>
@@ -7789,7 +7789,7 @@
         <v>50</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX40" t="n">
         <v>8.5</v>
@@ -7798,7 +7798,7 @@
         <v>15</v>
       </c>
       <c r="AZ40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA40" t="n">
         <v>45</v>
@@ -7851,7 +7851,7 @@
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -7860,19 +7860,19 @@
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q41" t="n">
         <v>2.35</v>
@@ -7887,19 +7887,19 @@
         <v>2.5</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X41" t="n">
         <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
         <v>21</v>
@@ -7920,13 +7920,13 @@
         <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="n">
         <v>351</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
         <v>15</v>
@@ -7956,7 +7956,7 @@
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS41" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -762,13 +762,13 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -801,13 +801,13 @@
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -831,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -846,16 +846,16 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -938,25 +938,25 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -965,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>1.44</v>
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
         <v>81</v>
@@ -1022,13 +1022,13 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -1046,7 +1046,7 @@
         <v>67</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1120,7 +1120,7 @@
         <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1129,22 +1129,22 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1153,10 +1153,10 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.73</v>
@@ -1329,10 +1329,10 @@
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U5" t="n">
         <v>2.63</v>
@@ -1341,7 +1341,7 @@
         <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
         <v>8.5</v>
@@ -1359,7 +1359,7 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1377,7 +1377,7 @@
         <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1389,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
@@ -1431,7 +1431,7 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1705,70 +1705,70 @@
         <v>1.93</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>32</v>
       </c>
       <c r="AA7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AB7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AQ7" t="n">
         <v>70</v>
       </c>
-      <c r="AG7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>65</v>
-      </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS7" t="n">
         <v>300</v>
@@ -1777,10 +1777,10 @@
         <v>2.57</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW7" t="n">
         <v>4.5</v>
@@ -1789,13 +1789,13 @@
         <v>14.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>65</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
         <v>300</v>
@@ -1848,7 +1848,7 @@
         <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
@@ -1869,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
         <v>1.29</v>
@@ -1923,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1944,7 +1944,7 @@
         <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>29</v>
@@ -1986,7 +1986,7 @@
         <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2233,10 +2233,10 @@
         <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pUuyqWeM</t>
+          <t>nPhPEkyf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
         <v>3.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AX11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>26</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
         <v>201</v>
       </c>
-      <c r="AH11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MeE4YhB7</t>
+          <t>pUuyqWeM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>67</v>
       </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
+      <c r="BA12" t="n">
         <v>101</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>151</v>
       </c>
       <c r="BB12" t="n">
         <v>351</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8hp5HV2L</t>
+          <t>MeE4YhB7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
       </c>
       <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
         <v>151</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lrCa1peE</t>
+          <t>8hp5HV2L</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,41 +2912,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2955,40 +2955,40 @@
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
@@ -2997,19 +2997,19 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
         <v>9</v>
@@ -3018,19 +3018,19 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
@@ -3039,7 +3039,7 @@
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
@@ -3048,10 +3048,10 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3060,31 +3060,31 @@
         <v>4.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hh4S2xFL</t>
+          <t>lrCa1peE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,133 +3104,133 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.25</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>11</v>
       </c>
-      <c r="X15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
         <v>34</v>
       </c>
-      <c r="AA15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AN15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>13</v>
       </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3239,22 +3239,22 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tjU6aOPQ</t>
+          <t>hh4S2xFL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,133 +3286,133 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
         <v>26</v>
       </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
         <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,22 +3421,22 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QN5wf2ml</t>
+          <t>tjU6aOPQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,49 +3468,49 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.15</v>
       </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3525,28 +3525,28 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
         <v>34</v>
       </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,40 +3555,40 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
         <v>67</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>81</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
@@ -3603,22 +3603,22 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bgq7ef7e</t>
+          <t>QN5wf2ml</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,133 +3650,133 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
         <v>201</v>
       </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,22 +3785,22 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY18" t="n">
         <v>23</v>
       </c>
-      <c r="AY18" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QXnqeErJ</t>
+          <t>bgq7ef7e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,106 +3832,106 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
         <v>3.25</v>
       </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>8.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3940,40 +3940,40 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
         <v>23</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>81</v>
@@ -3982,7 +3982,7 @@
         <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wfw1J3sG</t>
+          <t>QXnqeErJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,41 +4004,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4047,16 +4047,16 @@
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4065,25 +4065,25 @@
         <v>2.63</v>
       </c>
       <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.8</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
@@ -4092,40 +4092,40 @@
         <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
       </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
       <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
         <v>34</v>
       </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4134,37 +4134,37 @@
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
         <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0pE6ilga</t>
+          <t>Wfw1J3sG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,157 +4196,157 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
         <v>3.25</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
         <v>34</v>
       </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
         <v>81</v>
       </c>
-      <c r="BA21" t="n">
-        <v>126</v>
-      </c>
       <c r="BB21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pbs5INdM</t>
+          <t>0pE6ilga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,160 +4378,160 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.25</v>
       </c>
-      <c r="L22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
         <v>9.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>15</v>
       </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO22" t="n">
         <v>15</v>
       </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AP22" t="n">
         <v>29</v>
       </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
         <v>67</v>
       </c>
       <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC22" t="n">
         <v>81</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>501</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SMW9HsCS</t>
+          <t>pbs5INdM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,160 +4560,160 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
         <v>12</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
         <v>10</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>17</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>34</v>
       </c>
-      <c r="AK23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>13</v>
-      </c>
       <c r="AR23" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
         <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UVIyD1Kq</t>
+          <t>SMW9HsCS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,160 +4742,160 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.25</v>
+        <v>1.17</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>6.25</v>
       </c>
       <c r="I24" t="n">
-        <v>1.53</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>19</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.05</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>17</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>6.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK24" t="n">
         <v>151</v>
       </c>
-      <c r="AH24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>12</v>
       </c>
-      <c r="AL24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ24" t="n">
+      <c r="AR24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC24" t="n">
         <v>81</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>451</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nTlqaPOi</t>
+          <t>UVIyD1Kq</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="J25" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>17</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>23</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W25" t="n">
-        <v>13</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="BA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD25" t="n">
         <v>81</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tSshc3g4</t>
+          <t>nTlqaPOi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,160 +5106,160 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L26" t="n">
         <v>4</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.2</v>
       </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="W26" t="n">
         <v>13</v>
       </c>
       <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP26" t="n">
         <v>13</v>
       </c>
-      <c r="Z26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AQ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU26" t="n">
         <v>7</v>
       </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM26" t="n">
+      <c r="AV26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY26" t="n">
         <v>21</v>
       </c>
-      <c r="AN26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Eut0esOG</t>
+          <t>tSshc3g4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,160 +5288,160 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.7</v>
       </c>
-      <c r="H27" t="n">
+      <c r="R27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>13</v>
+      </c>
+      <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW27" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>19</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P27" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W27" t="n">
-        <v>12</v>
-      </c>
-      <c r="X27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AX27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY27" t="n">
         <v>17</v>
       </c>
-      <c r="AC27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI27" t="n">
+      <c r="AZ27" t="n">
         <v>29</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>51</v>
-      </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB27" t="n">
         <v>101</v>
       </c>
       <c r="BC27" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A7Z8gLhT</t>
+          <t>Eut0esOG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5470,85 +5470,85 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>19</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T28" t="n">
         <v>3.75</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="U28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W28" t="n">
+        <v>12</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
         <v>17</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>17</v>
-      </c>
-      <c r="X28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>26</v>
-      </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5560,43 +5560,43 @@
         <v>101</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ28" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5605,25 +5605,25 @@
         <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA28" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4bQxXB9U</t>
+          <t>A7Z8gLhT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,170 +5642,170 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
         <v>2.4</v>
       </c>
       <c r="L29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" t="n">
         <v>7</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>13</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W29" t="n">
-        <v>7</v>
-      </c>
-      <c r="X29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB29" t="n">
+      <c r="AV29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>29</v>
       </c>
-      <c r="AC29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>151</v>
-      </c>
       <c r="BA29" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="BB29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC29" t="n">
         <v>301</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>151</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UNhKBFVI</t>
+          <t>4bQxXB9U</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>4.33</v>
       </c>
       <c r="I30" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="T30" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7</v>
       </c>
-      <c r="Y30" t="n">
-        <v>13</v>
-      </c>
       <c r="Z30" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA30" t="n">
         <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE30" t="n">
         <v>21</v>
       </c>
-      <c r="AE30" t="n">
-        <v>41</v>
-      </c>
       <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK30" t="n">
         <v>101</v>
       </c>
-      <c r="AG30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>401</v>
-      </c>
       <c r="AL30" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AN30" t="n">
         <v>3.25</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS30" t="n">
         <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU30" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ30" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BA30" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="BB30" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EsFqnzIa</t>
+          <t>UNhKBFVI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>1.08</v>
       </c>
       <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.5</v>
       </c>
-      <c r="I31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L31" t="n">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="P31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R31" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="T31" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V31" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y31" t="n">
         <v>13</v>
       </c>
-      <c r="X31" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AP31" t="n">
         <v>17</v>
       </c>
-      <c r="Z31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AQ31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW31" t="n">
         <v>17</v>
       </c>
-      <c r="AF31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="AY31" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>501</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC31" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lU4ywxzg</t>
+          <t>EsFqnzIa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,167 +6188,167 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.37</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.65</v>
+        <v>1.67</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W32" t="n">
+        <v>13</v>
+      </c>
+      <c r="X32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>8.5</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC32" t="n">
+      <c r="AK32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU32" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AV32" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.85</v>
+        <v>3.6</v>
       </c>
       <c r="AX32" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AY32" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BA32" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BB32" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C8k1XX3U</t>
+          <t>lU4ywxzg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6380,157 +6380,157 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>2.37</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="K33" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V33" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="W33" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z33" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AA33" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="n">
         <v>250</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>9.75</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>8</v>
-      </c>
       <c r="AK33" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.3</v>
+        <v>4.55</v>
       </c>
       <c r="AO33" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AP33" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AR33" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AS33" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW33" t="n">
-        <v>3.85</v>
+        <v>4.85</v>
       </c>
       <c r="AX33" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AZ33" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="BA33" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="BB33" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC33" t="n">
         <v>51</v>
@@ -6542,182 +6542,364 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>C8k1XX3U</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>nVPNCnW8</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>01/11/2024</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Maldonado</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Rampla Juniors</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>2.3</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>3.1</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>3.25</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>3.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>4</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M35" t="n">
         <v>1.08</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N35" t="n">
         <v>8</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O35" t="n">
         <v>1.44</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>2.35</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R35" t="n">
         <v>1.57</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S35" t="n">
         <v>1.5</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T35" t="n">
         <v>2.5</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U35" t="n">
         <v>2</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V35" t="n">
         <v>1.73</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W35" t="n">
         <v>6.5</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X35" t="n">
         <v>10</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y35" t="n">
         <v>10</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="Z35" t="n">
         <v>21</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AA35" t="n">
         <v>21</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB35" t="n">
         <v>34</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AC35" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AD35" t="n">
         <v>6</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AE35" t="n">
         <v>17</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF35" t="n">
         <v>67</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG35" t="n">
         <v>351</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AH35" t="n">
         <v>8</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AI35" t="n">
         <v>15</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AJ35" t="n">
         <v>12</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AK35" t="n">
         <v>34</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AL35" t="n">
         <v>29</v>
       </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO34" t="n">
+      <c r="AO35" t="n">
         <v>13</v>
       </c>
-      <c r="AP34" t="n">
+      <c r="AP35" t="n">
         <v>26</v>
       </c>
-      <c r="AQ34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR34" t="n">
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
         <v>81</v>
       </c>
-      <c r="AS34" t="n">
+      <c r="AS35" t="n">
         <v>201</v>
       </c>
-      <c r="AT34" t="n">
+      <c r="AT35" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU34" t="n">
+      <c r="AU35" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV34" t="n">
+      <c r="AV35" t="n">
         <v>67</v>
       </c>
-      <c r="AW34" t="n">
+      <c r="AW35" t="n">
         <v>5</v>
       </c>
-      <c r="AX34" t="n">
+      <c r="AX35" t="n">
         <v>19</v>
       </c>
-      <c r="AY34" t="n">
+      <c r="AY35" t="n">
         <v>29</v>
       </c>
-      <c r="AZ34" t="n">
+      <c r="AZ35" t="n">
         <v>67</v>
       </c>
-      <c r="BA34" t="n">
+      <c r="BA35" t="n">
         <v>101</v>
       </c>
-      <c r="BB34" t="n">
+      <c r="BB35" t="n">
         <v>251</v>
       </c>
-      <c r="BC34" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD34" t="n">
+      <c r="BC35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD35" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IHYEDIog</t>
+          <t>02cHDDPH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
         <v>21</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W3" t="n">
-        <v>12</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="n">
         <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
         <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02cHDDPH</t>
+          <t>QTG2MMIC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,77 +1092,77 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1174,28 +1174,28 @@
         <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1207,16 +1207,16 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1225,34 +1225,34 @@
         <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QTG2MMIC</t>
+          <t>Sh7huyPi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,100 +1284,100 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1389,40 +1389,40 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,7 +1431,7 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sh7huyPi</t>
+          <t>023IUTje</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
         <v>5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.38</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
         <v>8</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
         <v>23</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
         <v>6</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AX6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>51</v>
       </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
         <v>351</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OEP9d9PP</t>
+          <t>nPhPEkyf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.87</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="n">
         <v>21</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>023IUTje</t>
+          <t>b1FZTtyb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,110 +1820,110 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.4</v>
       </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>17</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1932,67 +1932,67 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
         <v>9</v>
       </c>
-      <c r="AP8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BC8" t="n">
-        <v>351</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nPhPEkyf</t>
+          <t>pUuyqWeM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13</v>
-      </c>
-      <c r="X9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
         <v>15</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>34</v>
       </c>
-      <c r="AN9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
       </c>
       <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>67</v>
       </c>
-      <c r="AW9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>26</v>
-      </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pUuyqWeM</t>
+          <t>MeE4YhB7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
         <v>201</v>
       </c>
-      <c r="AH10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MeE4YhB7</t>
+          <t>8hp5HV2L</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
         <v>67</v>
       </c>
-      <c r="AW11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
         <v>151</v>
       </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8hp5HV2L</t>
+          <t>Wfw1J3sG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,128 +2548,128 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
         <v>11</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2684,43 +2684,43 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wfw1J3sG</t>
+          <t>0pE6ilga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,157 +2740,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="V13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
         <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
       </c>
-      <c r="AL13" t="n">
-        <v>26</v>
-      </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
         <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0pE6ilga</t>
+          <t>pbs5INdM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
         <v>41</v>
       </c>
       <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
         <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
         <v>81</v>
       </c>
-      <c r="BA14" t="n">
-        <v>126</v>
-      </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pbs5INdM</t>
+          <t>SMW9HsCS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,160 +3104,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>9.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.75</v>
       </c>
-      <c r="R15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP15" t="n">
         <v>15</v>
       </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AQ15" t="n">
         <v>12</v>
       </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AR15" t="n">
         <v>34</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
         <v>4</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AU15" t="n">
         <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC15" t="n">
         <v>81</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>501</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SMW9HsCS</t>
+          <t>UVIyD1Kq</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.18</v>
       </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>19</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.13</v>
-      </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
+        <v>17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
         <v>9</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
         <v>7</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AO16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>23</v>
       </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="BA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB16" t="n">
         <v>101</v>
       </c>
-      <c r="AT16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>301</v>
-      </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UVIyD1Kq</t>
+          <t>4bQxXB9U</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,41 +3458,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.75</v>
+        <v>1.22</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.57</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="L17" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3507,10 +3507,10 @@
         <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
         <v>1.29</v>
@@ -3519,76 +3519,76 @@
         <v>3.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
         <v>29</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>15</v>
       </c>
-      <c r="Z17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>81</v>
-      </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
@@ -3597,40 +3597,40 @@
         <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="BA17" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4bQxXB9U</t>
+          <t>UNhKBFVI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,167 +3640,167 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>8.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>15</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AR18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU18" t="n">
         <v>12</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BA18" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNhKBFVI</t>
+          <t>nVPNCnW8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.08</v>
       </c>
-      <c r="H19" t="n">
-        <v>11</v>
-      </c>
-      <c r="I19" t="n">
-        <v>23</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.3</v>
+        <v>2.35</v>
       </c>
       <c r="R19" t="n">
-        <v>3.5</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
         <v>26</v>
       </c>
-      <c r="AD19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
         <v>201</v>
       </c>
-      <c r="AH19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>451</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>67</v>
       </c>
       <c r="AW19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX19" t="n">
         <v>19</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>67</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
         <v>51</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>501</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>401</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>126</v>
-      </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nVPNCnW8</t>
+          <t>KvhUwqyR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,354 +4004,172 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.3</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
         <v>3.25</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>KvhUwqyR</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>10</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD21" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,10 +1329,10 @@
         <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNhKBFVI</t>
+          <t>nVPNCnW8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.09</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
         <v>21</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>15</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>26</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>34</v>
       </c>
-      <c r="AF9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>401</v>
-      </c>
       <c r="AK9" t="n">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
         <v>201</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>67</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nVPNCnW8</t>
+          <t>KvhUwqyR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,354 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.25</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KvhUwqyR</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>15</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD11" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nPhPEkyf</t>
+          <t>dA0Mxr3g</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
         <v>51</v>
       </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>21</v>
       </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b1FZTtyb</t>
+          <t>nPhPEkyf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.15</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1523,112 +1523,112 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP6" t="n">
         <v>41</v>
       </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY6" t="n">
         <v>21</v>
       </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pUuyqWeM</t>
+          <t>b1FZTtyb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.53</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
         <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MeE4YhB7</t>
+          <t>pUuyqWeM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,65 +1820,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.38</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1887,112 +1887,112 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>12</v>
       </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>51</v>
       </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>67</v>
       </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nVPNCnW8</t>
+          <t>lrdYOA4j</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,41 +2002,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2045,16 +2045,16 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2063,25 +2063,25 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2090,49 +2090,49 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
@@ -2141,40 +2141,40 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KvhUwqyR</t>
+          <t>nX8qfJq2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,172 +2184,900 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
         <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
         <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rHut8LYF</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tapatio</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M1iX9s43</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Venados</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Leones Negros</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>nVPNCnW8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="n">
         <v>15</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KvhUwqyR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK14" t="n">
         <v>21</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="AR14" t="n">
         <v>51</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="AS14" t="n">
         <v>126</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
         <v>401</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD14" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -798,7 +798,7 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -825,16 +825,16 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -959,10 +959,10 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
@@ -1153,16 +1153,16 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1195,7 +1195,7 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1210,7 +1210,7 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1857,10 +1857,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1887,7 +1887,7 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1953,7 +1953,7 @@
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
         <v>2.2</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.15</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>9.65</v>
+        <v>1.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -2421,34 +2421,34 @@
         <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC11" t="n">
         <v>9.5</v>
@@ -2457,7 +2457,7 @@
         <v>6.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF11" t="n">
         <v>60</v>
@@ -2466,16 +2466,16 @@
         <v>9.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
         <v>35</v>
@@ -2484,25 +2484,25 @@
         <v>450</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>45</v>
       </c>
       <c r="AR11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS11" t="n">
         <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU11" t="n">
         <v>6.9</v>
@@ -2511,22 +2511,22 @@
         <v>60</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -3079,6 +3079,188 @@
       </c>
       <c r="BD14" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kz2IMp1S</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -798,7 +798,7 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -825,7 +825,7 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -846,25 +846,25 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -1311,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1344,7 +1344,7 @@
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1353,13 +1353,13 @@
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1407,7 +1407,7 @@
         <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1699,10 +1699,10 @@
         <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1714,7 +1714,7 @@
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1738,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
         <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>301</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1854,7 +1854,7 @@
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
@@ -1887,16 +1887,16 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>29</v>
@@ -1965,16 +1965,16 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -762,31 +762,31 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="n">
         <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -798,13 +798,13 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>4.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
@@ -828,10 +828,10 @@
         <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -971,25 +971,25 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -998,46 +998,46 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
         <v>19</v>
       </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1052,22 +1052,22 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1135,16 +1135,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1168,7 +1168,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1189,10 +1189,10 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1213,10 +1213,10 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>29</v>
@@ -1374,7 +1374,7 @@
         <v>6.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>9.5</v>
@@ -1395,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>67</v>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1431,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1708,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1792,7 +1792,7 @@
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -1854,7 +1854,7 @@
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
@@ -1893,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -2236,13 +2236,13 @@
         <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2254,7 +2254,7 @@
         <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2281,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QTG2MMIC</t>
+          <t>Sh7huyPi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,151 +738,151 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.88</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.6</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>23</v>
       </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>51</v>
       </c>
-      <c r="AC2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>41</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sh7huyPi</t>
+          <t>l28ltH9o</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,55 +920,55 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.95</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
         <v>2.5</v>
@@ -980,25 +980,25 @@
         <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
         <v>17</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1007,16 +1007,16 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1028,43 +1028,43 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l28ltH9o</t>
+          <t>dA0Mxr3g</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,169 +1102,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.95</v>
       </c>
-      <c r="L4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
         <v>101</v>
       </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
         <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dA0Mxr3g</t>
+          <t>nPhPEkyf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
         <v>8.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
         <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>26</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nPhPEkyf</t>
+          <t>b1FZTtyb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
         <v>6</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13</v>
-      </c>
-      <c r="X6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AE6" t="n">
         <v>19</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>126</v>
-      </c>
       <c r="AR6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b1FZTtyb</t>
+          <t>lrdYOA4j</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,95 +1638,95 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1735,46 +1735,46 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK7" t="n">
         <v>41</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>34</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1783,22 +1783,22 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pUuyqWeM</t>
+          <t>nX8qfJq2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.44</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
         <v>29</v>
       </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AM8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lrdYOA4j</t>
+          <t>rHut8LYF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>1.03</v>
       </c>
       <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
       </c>
       <c r="T9" t="n">
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>10.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nX8qfJq2</t>
+          <t>M1iX9s43</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,174 +2189,174 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
         <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.05</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AV10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC10" t="n">
         <v>51</v>
       </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
+      <c r="BD10" t="n">
         <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rHut8LYF</t>
+          <t>KvhUwqyR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.7</v>
-      </c>
       <c r="M11" t="n">
-        <v>8.300000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>1.05</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>27</v>
-      </c>
       <c r="AL11" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.47</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
         <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M1iX9s43</t>
+          <t>Kz2IMp1S</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.1</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="T12" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X12" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
         <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.75</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nVPNCnW8</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,537 +2730,173 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
       </c>
       <c r="AI13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>KvhUwqyR</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Kz2IMp1S</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Colorado Rapids</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Los Angeles Galaxy</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>23</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>17</v>
-      </c>
-      <c r="X15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -777,10 +777,10 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -947,10 +947,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1302,10 +1302,10 @@
         <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>2.2</v>
@@ -1335,10 +1335,10 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>13</v>
@@ -1347,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>67</v>
@@ -1371,13 +1371,13 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
         <v>34</v>
@@ -1499,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
         <v>2.4</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2427,10 +2427,10 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
         <v>10</v>
@@ -2478,7 +2478,7 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>151</v>
@@ -2490,7 +2490,7 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2499,7 +2499,7 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="H13" t="n">
         <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
         <v>1.45</v>
@@ -2794,28 +2794,28 @@
         <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA13" t="n">
         <v>23</v>
       </c>
-      <c r="AA13" t="n">
-        <v>20</v>
-      </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
@@ -2827,70 +2827,70 @@
         <v>80</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM13" t="n">
         <v>700</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT13" t="n">
         <v>2.55</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV13" t="n">
         <v>75</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BA13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB13" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sh7huyPi</t>
+          <t>l28ltH9o</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,55 +738,55 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.95</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.83</v>
-      </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -798,25 +798,25 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
         <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,16 +825,16 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI2" t="n">
         <v>21</v>
       </c>
-      <c r="AI2" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,43 +846,43 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l28ltH9o</t>
+          <t>dA0Mxr3g</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.95</v>
       </c>
-      <c r="L3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
         <v>101</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>67</v>
       </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AW3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
         <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dA0Mxr3g</t>
+          <t>nPhPEkyf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
         <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>26</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nPhPEkyf</t>
+          <t>b1FZTtyb</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29</v>
-      </c>
       <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21</v>
       </c>
-      <c r="Z5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>51</v>
-      </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b1FZTtyb</t>
+          <t>lrdYOA4j</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,95 +1456,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1553,46 +1553,46 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>34</v>
       </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,22 +1601,22 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lrdYOA4j</t>
+          <t>nX8qfJq2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,165 +1643,165 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>34</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
         <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
         <v>51</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
         <v>201</v>
       </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
-      </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nX8qfJq2</t>
+          <t>rHut8LYF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
         <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
-      </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rHut8LYF</t>
+          <t>M1iX9s43</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L9" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M9" t="n">
-        <v>8.300000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.03</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AJ9" t="n">
         <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS9" t="n">
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AX9" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M1iX9s43</t>
+          <t>KvhUwqyR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KvhUwqyR</t>
+          <t>Kz2IMp1S</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,169 +2376,169 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>23</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.88</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="S11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>17</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AH11" t="n">
         <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW11" t="n">
         <v>5</v>
       </c>
       <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
         <v>15</v>
       </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA11" t="n">
         <v>41</v>
       </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kz2IMp1S</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,354 +2548,172 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>2.27</v>
       </c>
       <c r="R12" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX12" t="n">
         <v>17</v>
       </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>12</v>
-      </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>rcPS0RFN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
@@ -765,10 +765,10 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -789,13 +789,13 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>6.5</v>
@@ -816,7 +816,7 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nPhPEkyf</t>
+          <t>b1FZTtyb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
         <v>9</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
-      <c r="X4" t="n">
-        <v>29</v>
-      </c>
       <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
         <v>21</v>
       </c>
-      <c r="Z4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>51</v>
-      </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b1FZTtyb</t>
+          <t>lrdYOA4j</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,95 +1274,95 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1371,46 +1371,46 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1419,22 +1419,22 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lrdYOA4j</t>
+          <t>nX8qfJq2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,165 +1461,165 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>34</v>
       </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
         <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
         <v>51</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
         <v>201</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>351</v>
-      </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nX8qfJq2</t>
+          <t>rHut8LYF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,174 +1643,174 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rHut8LYF</t>
+          <t>M1iX9s43</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,157 +1830,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L8" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
-        <v>8.300000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.03</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AJ8" t="n">
         <v>40</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AX8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BA8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M1iX9s43</t>
+          <t>KvhUwqyR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KvhUwqyR</t>
+          <t>Kz2IMp1S</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>23</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
         <v>21</v>
       </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>23</v>
       </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY10" t="n">
         <v>15</v>
       </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kz2IMp1S</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,354 +2366,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>6.5</v>
+        <v>2.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX11" t="n">
         <v>17</v>
       </c>
-      <c r="X11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>rcPS0RFN</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -935,7 +935,7 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
@@ -1496,7 +1496,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1508,13 +1508,13 @@
         <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1526,7 +1526,7 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1556,7 +1556,7 @@
         <v>9.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
         <v>2.02</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1878,31 +1878,31 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
         <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB8" t="n">
         <v>25</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27</v>
       </c>
       <c r="AC8" t="n">
         <v>9.75</v>
@@ -1917,43 +1917,43 @@
         <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
         <v>350</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO8" t="n">
         <v>12.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -1965,22 +1965,22 @@
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KvhUwqyR</t>
+          <t>Kz2IMp1S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,169 +2012,169 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.3</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>23</v>
       </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
       </c>
       <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
         <v>15</v>
       </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kz2IMp1S</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,354 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>6.5</v>
+        <v>2.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX10" t="n">
         <v>17</v>
       </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>rcPS0RFN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.4</v>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,13 +789,13 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
         <v>6.5</v>
@@ -807,16 +807,16 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -885,7 +885,7 @@
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -1317,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>
@@ -1496,7 +1496,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M7" t="n">
         <v>8.300000000000001</v>
@@ -1684,19 +1684,19 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
         <v>1.65</v>
@@ -1705,49 +1705,49 @@
         <v>1.98</v>
       </c>
       <c r="W7" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
         <v>55</v>
       </c>
       <c r="AG7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
         <v>10</v>
       </c>
-      <c r="AH7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
@@ -1756,16 +1756,16 @@
         <v>400</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR7" t="n">
         <v>90</v>
@@ -1774,28 +1774,28 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
         <v>300</v>
@@ -2024,7 +2024,7 @@
         <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>2.3</v>
@@ -2033,16 +2033,16 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
         <v>1.11</v>
@@ -2090,10 +2090,10 @@
         <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -2114,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -971,22 +971,22 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
         <v>29</v>
@@ -1031,10 +1031,10 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
@@ -1067,7 +1067,7 @@
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b1FZTtyb</t>
+          <t>lrdYOA4j</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,95 +1092,95 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1189,46 +1189,46 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK4" t="n">
         <v>41</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1237,22 +1237,22 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lrdYOA4j</t>
+          <t>nX8qfJq2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,165 +1279,165 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
         <v>8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="X5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AE5" t="n">
         <v>13</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>15</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>34</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AK5" t="n">
         <v>26</v>
       </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nX8qfJq2</t>
+          <t>rHut8LYF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,51 +1461,51 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>2.57</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.8</v>
@@ -1514,121 +1514,121 @@
         <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
         <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
       </c>
       <c r="AC6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rHut8LYF</t>
+          <t>M1iX9s43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.95</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
         <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA7" t="n">
         <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M1iX9s43</t>
+          <t>Kz2IMp1S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.1</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="S8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.4</v>
       </c>
-      <c r="T8" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="W8" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
         <v>12</v>
       </c>
-      <c r="AF8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kz2IMp1S</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,354 +2002,172 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
         <v>21</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AQ9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX9" t="n">
         <v>17</v>
       </c>
-      <c r="X9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>12</v>
-      </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>rcPS0RFN</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l28ltH9o</t>
+          <t>dA0Mxr3g</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="n">
         <v>101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>151</v>
-      </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dA0Mxr3g</t>
+          <t>lrdYOA4j</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,42 +915,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,118 +971,118 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>13</v>
       </c>
-      <c r="Z3" t="n">
-        <v>41</v>
-      </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
       <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
-      <c r="AM3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>67</v>
-      </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lrdYOA4j</t>
+          <t>nX8qfJq2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,165 +1097,165 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
         <v>34</v>
       </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
         <v>201</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nX8qfJq2</t>
+          <t>rHut8LYF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,51 +1279,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
         <v>1.8</v>
@@ -1332,121 +1332,121 @@
         <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rHut8LYF</t>
+          <t>M1iX9s43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.57</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.02</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD6" t="n">
         <v>6.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.75</v>
+        <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM6" t="n">
         <v>29</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AN6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY6" t="n">
         <v>21</v>
       </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
         <v>100</v>
       </c>
       <c r="BB6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M1iX9s43</t>
+          <t>Kz2IMp1S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V7" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W7" t="n">
+        <v>17</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="n">
         <v>8</v>
       </c>
-      <c r="X7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="AI7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>12</v>
       </c>
-      <c r="AP7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>16</v>
-      </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kz2IMp1S</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,354 +1820,172 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.5</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="U8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AQ8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX8" t="n">
         <v>17</v>
       </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>rcPS0RFN</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -1699,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
@@ -1723,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1735,13 +1735,13 @@
         <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
@@ -1768,7 +1768,7 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kz2IMp1S</t>
+          <t>rcPS0RFN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,354 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>2.67</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>21</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>7.9</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO2" t="n">
         <v>15</v>
       </c>
-      <c r="AM2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>6.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="BC2" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>rcPS0RFN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-01.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
         <v>2.67</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.93</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -792,25 +792,25 @@
         <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="n">
         <v>5.8</v>
@@ -822,16 +822,16 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
         <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.25</v>
@@ -840,25 +840,25 @@
         <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
@@ -876,16 +876,16 @@
         <v>4.85</v>
       </c>
       <c r="AX2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB2" t="n">
         <v>300</v>
